--- a/shs_ipat_data.xlsx
+++ b/shs_ipat_data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pietropecchini/EPFL/secondo_semestre/Economic-Growth-and-Sustainability/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tk/Documents/Studium/SHS_Economic_Growth_and_Sustainability/analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{97D62803-0D86-DF43-907B-9385BEC0B915}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{390222C3-29BA-4944-A5D0-010B1FF2DE5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="25320" windowHeight="16380" firstSheet="1" activeTab="1" xr2:uid="{A18B0547-13CD-FE4C-957C-071F0095D41C}"/>
+    <workbookView xWindow="2300" yWindow="2440" windowWidth="35780" windowHeight="21540" firstSheet="1" activeTab="1" xr2:uid="{A18B0547-13CD-FE4C-957C-071F0095D41C}"/>
   </bookViews>
   <sheets>
     <sheet name="Switzerland" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="69">
   <si>
     <t>Year</t>
   </si>
@@ -183,7 +183,7 @@
     <t>Share Private Housing</t>
   </si>
   <si>
-    <t>Private Housing</t>
+    <t>Cement Demand for Private Housing</t>
   </si>
   <si>
     <t>Gesamt [1000]</t>
@@ -229,15 +229,31 @@
   </si>
   <si>
     <t>Statistik der Baufertigstellungen</t>
+  </si>
+  <si>
+    <t>DW / Pop</t>
+  </si>
+  <si>
+    <t>new DW / DW</t>
+  </si>
+  <si>
+    <t>Rooms / new DW</t>
+  </si>
+  <si>
+    <t>sqm / Rooms</t>
+  </si>
+  <si>
+    <t>private CD</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.00000"/>
+    <numFmt numFmtId="166" formatCode="0.0000"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -295,7 +311,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -318,6 +334,10 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1155,11 +1175,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C513AF53-9CB1-EA4A-BF09-48D20F8336F2}">
-  <dimension ref="A1:AC40"/>
+  <dimension ref="A1:AI40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="S1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B33" sqref="B33"/>
+      <pane xSplit="1" topLeftCell="G1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1169,7 +1189,7 @@
     <col min="3" max="3" width="14.1640625" style="2" customWidth="1"/>
     <col min="4" max="4" width="14.83203125" style="2" customWidth="1"/>
     <col min="5" max="5" width="11.33203125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="11.6640625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" style="9" customWidth="1"/>
     <col min="7" max="7" width="11.1640625" style="2" customWidth="1"/>
     <col min="8" max="8" width="19" style="2" customWidth="1"/>
     <col min="9" max="9" width="14.6640625" style="2" customWidth="1"/>
@@ -1181,15 +1201,20 @@
     <col min="24" max="26" width="20.83203125" style="3" customWidth="1"/>
     <col min="27" max="27" width="20.83203125" style="4" customWidth="1"/>
     <col min="28" max="29" width="20.83203125" style="3" customWidth="1"/>
-    <col min="30" max="16384" width="11" style="2"/>
+    <col min="30" max="30" width="11" style="2"/>
+    <col min="31" max="35" width="20.83203125" style="12" customWidth="1"/>
+    <col min="36" max="16384" width="11" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:35" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="9" t="s">
         <v>31</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>68</v>
       </c>
       <c r="G1" s="9" t="s">
         <v>2</v>
@@ -1203,6 +1228,9 @@
       <c r="N1" s="2" t="s">
         <v>34</v>
       </c>
+      <c r="O1" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="Q1" s="2" t="s">
         <v>35</v>
       </c>
@@ -1230,8 +1258,23 @@
       <c r="AC1" s="3" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="2" spans="1:29" s="6" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE1" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="AF1" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="AG1" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="AH1" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="AI1" s="12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:35" s="6" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10"/>
       <c r="B2" s="6" t="s">
         <v>44</v>
@@ -1245,7 +1288,7 @@
       <c r="E2" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="10" t="s">
         <v>48</v>
       </c>
       <c r="G2" s="6" t="s">
@@ -1288,18 +1331,22 @@
       <c r="AA2" s="8"/>
       <c r="AB2" s="7"/>
       <c r="AC2" s="7"/>
-    </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AE2" s="13"/>
+      <c r="AF2" s="13"/>
+      <c r="AG2" s="13"/>
+      <c r="AI2" s="13"/>
+    </row>
+    <row r="3" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A3" s="9"/>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A4" s="9">
         <v>1990</v>
       </c>
       <c r="B4" s="2">
         <v>27.501999999999999</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="9">
         <f xml:space="preserve"> B4 * E4</f>
         <v>0</v>
       </c>
@@ -1339,15 +1386,35 @@
         <f xml:space="preserve"> F4 * 1000000 / (R4 * 1000)</f>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AE4" s="12" t="e">
+        <f xml:space="preserve"> K4 / (G4*1000)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AF4" s="12" t="e">
+        <f xml:space="preserve"> O4 / K4</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG4" s="12" t="e">
+        <f xml:space="preserve"> P4 / O4</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AH4" s="12" t="e">
+        <f xml:space="preserve"> (R4 * 1000) / P4</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AI4" s="12" t="e">
+        <f xml:space="preserve"> F4 * 1000000 / (R4 * 1000)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="5" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A5" s="9">
         <v>2000</v>
       </c>
       <c r="B5" s="2">
         <v>35.781999999999996</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="9">
         <f t="shared" ref="F5:F27" si="0" xml:space="preserve"> B5 * E5</f>
         <v>0</v>
       </c>
@@ -1390,8 +1457,28 @@
         <f t="shared" ref="AC5:AC28" si="8" xml:space="preserve"> F5 * 1000000 / (R5 * 1000)</f>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AE5" s="12">
+        <f t="shared" ref="AE5:AE28" si="9" xml:space="preserve"> K5 / (G5*1000)</f>
+        <v>0</v>
+      </c>
+      <c r="AF5" s="12" t="e">
+        <f t="shared" ref="AF5:AF28" si="10" xml:space="preserve"> O5 / K5</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG5" s="12" t="e">
+        <f t="shared" ref="AG5:AG28" si="11" xml:space="preserve"> P5 / O5</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AH5" s="12" t="e">
+        <f t="shared" ref="AH5:AH28" si="12" xml:space="preserve"> (R5 * 1000) / P5</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AI5" s="12" t="e">
+        <f t="shared" ref="AI5:AI28" si="13" xml:space="preserve"> F5 * 1000000 / (R5 * 1000)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="6" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A6" s="9">
         <v>2001</v>
       </c>
@@ -1417,7 +1504,7 @@
         <v>31378</v>
       </c>
       <c r="V6" s="3">
-        <f t="shared" ref="V6:V27" si="9" xml:space="preserve"> F6</f>
+        <f t="shared" ref="V6:V27" si="14" xml:space="preserve"> F6</f>
         <v>0</v>
       </c>
       <c r="W6" s="2">
@@ -1448,8 +1535,28 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AE6" s="12">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AF6" s="12" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG6" s="12">
+        <f t="shared" si="11"/>
+        <v>5.0257305237387424</v>
+      </c>
+      <c r="AH6" s="12">
+        <f t="shared" si="12"/>
+        <v>21.836042483482743</v>
+      </c>
+      <c r="AI6" s="12">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A7" s="9">
         <v>2002</v>
       </c>
@@ -1475,7 +1582,7 @@
         <v>28618</v>
       </c>
       <c r="V7" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="W7" s="2">
@@ -1506,8 +1613,28 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AE7" s="12">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AF7" s="12" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG7" s="12">
+        <f t="shared" si="11"/>
+        <v>5.1089909341742219</v>
+      </c>
+      <c r="AH7" s="12">
+        <f t="shared" si="12"/>
+        <v>22.079217622020892</v>
+      </c>
+      <c r="AI7" s="12">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A8" s="9">
         <v>2003</v>
       </c>
@@ -1533,7 +1660,7 @@
         <v>27045</v>
       </c>
       <c r="V8" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="W8" s="2">
@@ -1564,8 +1691,28 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AE8" s="12">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AF8" s="12" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG8" s="12">
+        <f t="shared" si="11"/>
+        <v>5.1767645962522453</v>
+      </c>
+      <c r="AH8" s="12">
+        <f t="shared" si="12"/>
+        <v>22.128636558520405</v>
+      </c>
+      <c r="AI8" s="12">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A9" s="9">
         <v>2004</v>
       </c>
@@ -1591,7 +1738,7 @@
         <v>28784</v>
       </c>
       <c r="V9" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="W9" s="2">
@@ -1622,15 +1769,35 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AE9" s="12">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AF9" s="12" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG9" s="12">
+        <f t="shared" si="11"/>
+        <v>5.223503299098045</v>
+      </c>
+      <c r="AH9" s="12">
+        <f t="shared" si="12"/>
+        <v>22.23805160550636</v>
+      </c>
+      <c r="AI9" s="12">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A10" s="9">
         <v>2005</v>
       </c>
       <c r="B10" s="2">
         <v>27.042000000000002</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1656,7 +1823,7 @@
         <v>24983</v>
       </c>
       <c r="V10" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="W10" s="2">
@@ -1687,15 +1854,35 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AE10" s="12">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AF10" s="12" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG10" s="12">
+        <f t="shared" si="11"/>
+        <v>5.2265327507648554</v>
+      </c>
+      <c r="AH10" s="12">
+        <f t="shared" si="12"/>
+        <v>22.361054548872012</v>
+      </c>
+      <c r="AI10" s="12">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A11" s="9">
         <v>2006</v>
       </c>
       <c r="B11" s="2">
         <v>28.92</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F11" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1721,7 +1908,7 @@
         <v>25498</v>
       </c>
       <c r="V11" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="W11" s="2">
@@ -1752,15 +1939,35 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AE11" s="12">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AF11" s="12" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG11" s="12">
+        <f t="shared" si="11"/>
+        <v>5.1358249069738982</v>
+      </c>
+      <c r="AH11" s="12">
+        <f t="shared" si="12"/>
+        <v>22.50181573009117</v>
+      </c>
+      <c r="AI11" s="12">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A12" s="9">
         <v>2007</v>
       </c>
       <c r="B12" s="2">
         <v>27.352</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F12" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1786,7 +1993,7 @@
         <v>21657</v>
       </c>
       <c r="V12" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="W12" s="2">
@@ -1817,15 +2024,35 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AE12" s="12">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AF12" s="12" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG12" s="12">
+        <f t="shared" si="11"/>
+        <v>5.1038879745298544</v>
+      </c>
+      <c r="AH12" s="12">
+        <f t="shared" si="12"/>
+        <v>22.897422044411929</v>
+      </c>
+      <c r="AI12" s="12">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A13" s="9">
         <v>2008</v>
       </c>
       <c r="B13" s="2">
         <v>27.591000000000001</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F13" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1851,7 +2078,7 @@
         <v>17628</v>
       </c>
       <c r="V13" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="W13" s="2">
@@ -1882,8 +2109,28 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AE13" s="12">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AF13" s="12" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG13" s="12">
+        <f t="shared" si="11"/>
+        <v>5.0102077681509751</v>
+      </c>
+      <c r="AH13" s="12">
+        <f t="shared" si="12"/>
+        <v>23.111444412833222</v>
+      </c>
+      <c r="AI13" s="12">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A14" s="9">
         <v>2009</v>
       </c>
@@ -1894,7 +2141,7 @@
         <f xml:space="preserve"> (B14 - B13) / B13</f>
         <v>-8.4629045703309078E-2</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F14" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1920,7 +2167,7 @@
         <v>15781</v>
       </c>
       <c r="V14" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="W14" s="2">
@@ -1951,8 +2198,28 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AE14" s="12">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AF14" s="12" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG14" s="12">
+        <f t="shared" si="11"/>
+        <v>4.9546799689418242</v>
+      </c>
+      <c r="AH14" s="12">
+        <f t="shared" si="12"/>
+        <v>23.330765830429492</v>
+      </c>
+      <c r="AI14" s="12">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A15" s="9">
         <v>2010</v>
       </c>
@@ -1960,10 +2227,10 @@
         <v>24.690999999999999</v>
       </c>
       <c r="D15" s="2">
-        <f t="shared" ref="D15:D27" si="10" xml:space="preserve"> (B15 - B14) / B14</f>
+        <f t="shared" ref="D15:D27" si="15" xml:space="preserve"> (B15 - B14) / B14</f>
         <v>-2.2370921761165716E-2</v>
       </c>
-      <c r="F15" s="2">
+      <c r="F15" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1989,7 +2256,7 @@
         <v>16165</v>
       </c>
       <c r="V15" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="W15" s="2">
@@ -2020,8 +2287,28 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AE15" s="12">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AF15" s="12" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG15" s="12">
+        <f t="shared" si="11"/>
+        <v>4.9070280379168567</v>
+      </c>
+      <c r="AH15" s="12">
+        <f t="shared" si="12"/>
+        <v>23.514266388345419</v>
+      </c>
+      <c r="AI15" s="12">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A16" s="9">
         <v>2011</v>
       </c>
@@ -2029,10 +2316,10 @@
         <v>28.071999999999999</v>
       </c>
       <c r="D16" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0.13693248552104006</v>
       </c>
-      <c r="F16" s="2">
+      <c r="F16" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2058,7 +2345,7 @@
         <v>18636</v>
       </c>
       <c r="V16" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="W16" s="2">
@@ -2089,8 +2376,28 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AE16" s="12">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AF16" s="12" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG16" s="12">
+        <f t="shared" si="11"/>
+        <v>4.8402094474706239</v>
+      </c>
+      <c r="AH16" s="12">
+        <f t="shared" si="12"/>
+        <v>23.886979058517714</v>
+      </c>
+      <c r="AI16" s="12">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A17" s="9">
         <v>2012</v>
       </c>
@@ -2098,10 +2405,10 @@
         <v>26.77</v>
       </c>
       <c r="D17" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>-4.6380735252208594E-2</v>
       </c>
-      <c r="F17" s="2">
+      <c r="F17" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2127,7 +2434,7 @@
         <v>20183</v>
       </c>
       <c r="V17" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="W17" s="2">
@@ -2158,8 +2465,28 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AE17" s="12">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AF17" s="12" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG17" s="12">
+        <f t="shared" si="11"/>
+        <v>4.7115170113862197</v>
+      </c>
+      <c r="AH17" s="12">
+        <f t="shared" si="12"/>
+        <v>24.254507086599034</v>
+      </c>
+      <c r="AI17" s="12">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A18" s="9">
         <v>2013</v>
       </c>
@@ -2167,10 +2494,10 @@
         <v>26.545000000000002</v>
       </c>
       <c r="D18" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>-8.404930892790357E-3</v>
       </c>
-      <c r="F18" s="2">
+      <c r="F18" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2196,7 +2523,7 @@
         <v>21181</v>
       </c>
       <c r="V18" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="W18" s="2">
@@ -2227,8 +2554,28 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AE18" s="12">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AF18" s="12" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG18" s="12">
+        <f t="shared" si="11"/>
+        <v>4.5905030334877948</v>
+      </c>
+      <c r="AH18" s="12">
+        <f t="shared" si="12"/>
+        <v>24.491320329726875</v>
+      </c>
+      <c r="AI18" s="12">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A19" s="9">
         <v>2014</v>
       </c>
@@ -2236,10 +2583,10 @@
         <v>27.059000000000001</v>
       </c>
       <c r="D19" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>1.9363345262761324E-2</v>
       </c>
-      <c r="F19" s="2">
+      <c r="F19" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2265,7 +2612,7 @@
         <v>23740</v>
       </c>
       <c r="V19" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="W19" s="2">
@@ -2296,8 +2643,28 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AE19" s="12">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AF19" s="12" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG19" s="12">
+        <f t="shared" si="11"/>
+        <v>4.4402369054229132</v>
+      </c>
+      <c r="AH19" s="12">
+        <f t="shared" si="12"/>
+        <v>24.738856051953682</v>
+      </c>
+      <c r="AI19" s="12">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A20" s="9">
         <v>2015</v>
       </c>
@@ -2308,13 +2675,13 @@
         <v>-0.02</v>
       </c>
       <c r="D20" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>-1.6962932850437918E-2</v>
       </c>
       <c r="E20" s="2">
         <v>0.307</v>
       </c>
-      <c r="F20" s="2">
+      <c r="F20" s="9">
         <f t="shared" si="0"/>
         <v>8.1661999999999999</v>
       </c>
@@ -2349,7 +2716,7 @@
         <v>23613</v>
       </c>
       <c r="V20" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>8.1661999999999999</v>
       </c>
       <c r="W20" s="2">
@@ -2380,8 +2747,28 @@
         <f t="shared" si="8"/>
         <v>0.34583492144157879</v>
       </c>
-    </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AE20" s="12">
+        <f t="shared" si="9"/>
+        <v>0.50435980091510901</v>
+      </c>
+      <c r="AF20" s="12">
+        <f t="shared" si="10"/>
+        <v>5.2291073423710423E-3</v>
+      </c>
+      <c r="AG20" s="12">
+        <f t="shared" si="11"/>
+        <v>4.3544228453307614</v>
+      </c>
+      <c r="AH20" s="12">
+        <f t="shared" si="12"/>
+        <v>25.021166213319404</v>
+      </c>
+      <c r="AI20" s="12">
+        <f t="shared" si="13"/>
+        <v>0.34583492144157879</v>
+      </c>
+    </row>
+    <row r="21" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A21" s="9">
         <v>2016</v>
       </c>
@@ -2392,13 +2779,13 @@
         <v>3.2000000000000001E-2</v>
       </c>
       <c r="D21" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>3.3834586466165356E-2</v>
       </c>
       <c r="E21" s="2">
         <v>0.314</v>
       </c>
-      <c r="F21" s="2">
+      <c r="F21" s="9">
         <f t="shared" si="0"/>
         <v>8.6349999999999998</v>
       </c>
@@ -2433,7 +2820,7 @@
         <v>24876</v>
       </c>
       <c r="V21" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>8.6349999999999998</v>
       </c>
       <c r="W21" s="2">
@@ -2464,8 +2851,28 @@
         <f t="shared" si="8"/>
         <v>0.34712172374979899</v>
       </c>
-    </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AE21" s="12">
+        <f t="shared" si="9"/>
+        <v>0.50536035239087762</v>
+      </c>
+      <c r="AF21" s="12">
+        <f t="shared" si="10"/>
+        <v>5.6508174271959512E-3</v>
+      </c>
+      <c r="AG21" s="12">
+        <f t="shared" si="11"/>
+        <v>4.193305552962344</v>
+      </c>
+      <c r="AH21" s="12">
+        <f t="shared" si="12"/>
+        <v>25.173398530236209</v>
+      </c>
+      <c r="AI21" s="12">
+        <f t="shared" si="13"/>
+        <v>0.34712172374979899</v>
+      </c>
+    </row>
+    <row r="22" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A22" s="9">
         <v>2017</v>
       </c>
@@ -2476,13 +2883,13 @@
         <v>4.8000000000000001E-2</v>
       </c>
       <c r="D22" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>4.72727272727273E-2</v>
       </c>
       <c r="E22" s="2">
         <v>0.317</v>
       </c>
-      <c r="F22" s="2">
+      <c r="F22" s="9">
         <f t="shared" si="0"/>
         <v>9.1295999999999999</v>
       </c>
@@ -2517,7 +2924,7 @@
         <v>25602</v>
       </c>
       <c r="V22" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>9.1295999999999999</v>
       </c>
       <c r="W22" s="2">
@@ -2548,8 +2955,28 @@
         <f t="shared" si="8"/>
         <v>0.35659714084837124</v>
       </c>
-    </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AE22" s="12">
+        <f t="shared" si="9"/>
+        <v>0.50690967726350367</v>
+      </c>
+      <c r="AF22" s="12">
+        <f t="shared" si="10"/>
+        <v>5.8450155887574138E-3</v>
+      </c>
+      <c r="AG22" s="12">
+        <f t="shared" si="11"/>
+        <v>4.0961093174183869</v>
+      </c>
+      <c r="AH22" s="12">
+        <f t="shared" si="12"/>
+        <v>25.479900317677689</v>
+      </c>
+      <c r="AI22" s="12">
+        <f t="shared" si="13"/>
+        <v>0.35659714084837124</v>
+      </c>
+    </row>
+    <row r="23" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A23" s="9">
         <v>2018</v>
       </c>
@@ -2560,13 +2987,13 @@
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="D23" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>6.9444444444444198E-3</v>
       </c>
       <c r="E23" s="2">
         <v>0.32</v>
       </c>
-      <c r="F23" s="2">
+      <c r="F23" s="9">
         <f t="shared" si="0"/>
         <v>9.2799999999999994</v>
       </c>
@@ -2601,7 +3028,7 @@
         <v>25776</v>
       </c>
       <c r="V23" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>9.2799999999999994</v>
       </c>
       <c r="W23" s="2">
@@ -2632,8 +3059,28 @@
         <f t="shared" si="8"/>
         <v>0.36002482929857232</v>
       </c>
-    </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AE23" s="12">
+        <f t="shared" si="9"/>
+        <v>0.50874380563485466</v>
+      </c>
+      <c r="AF23" s="12">
+        <f t="shared" si="10"/>
+        <v>5.9508845209997052E-3</v>
+      </c>
+      <c r="AG23" s="12">
+        <f t="shared" si="11"/>
+        <v>3.9977241801876358</v>
+      </c>
+      <c r="AH23" s="12">
+        <f t="shared" si="12"/>
+        <v>25.653376858615815</v>
+      </c>
+      <c r="AI23" s="12">
+        <f t="shared" si="13"/>
+        <v>0.36002482929857232</v>
+      </c>
+    </row>
+    <row r="24" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A24" s="9">
         <v>2019</v>
       </c>
@@ -2645,13 +3092,13 @@
         <v>-1.6E-2</v>
       </c>
       <c r="D24" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>-1.0344827586206921E-2</v>
       </c>
       <c r="E24" s="2">
         <v>0.33</v>
       </c>
-      <c r="F24" s="2">
+      <c r="F24" s="9">
         <f t="shared" si="0"/>
         <v>9.4710000000000001</v>
       </c>
@@ -2686,7 +3133,7 @@
         <v>26401</v>
       </c>
       <c r="V24" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>9.4710000000000001</v>
       </c>
       <c r="W24" s="2">
@@ -2717,8 +3164,28 @@
         <f t="shared" si="8"/>
         <v>0.35873641149956442</v>
       </c>
-    </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AE24" s="12">
+        <f t="shared" si="9"/>
+        <v>0.51117355441461154</v>
+      </c>
+      <c r="AF24" s="12">
+        <f t="shared" si="10"/>
+        <v>6.0199557445926076E-3</v>
+      </c>
+      <c r="AG24" s="12">
+        <f t="shared" si="11"/>
+        <v>3.9896375891374425</v>
+      </c>
+      <c r="AH24" s="12">
+        <f t="shared" si="12"/>
+        <v>25.856766772962683</v>
+      </c>
+      <c r="AI24" s="12">
+        <f t="shared" si="13"/>
+        <v>0.35873641149956442</v>
+      </c>
+    </row>
+    <row r="25" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A25" s="9">
         <v>2020</v>
       </c>
@@ -2729,13 +3196,13 @@
         <v>4.7E-2</v>
       </c>
       <c r="D25" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>4.8780487804878127E-2</v>
       </c>
       <c r="E25" s="2">
         <v>0.312</v>
       </c>
-      <c r="F25" s="2">
+      <c r="F25" s="9">
         <f t="shared" si="0"/>
         <v>9.3911999999999995</v>
       </c>
@@ -2777,7 +3244,7 @@
         <v>27747</v>
       </c>
       <c r="V25" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>9.3911999999999995</v>
       </c>
       <c r="W25" s="2">
@@ -2808,8 +3275,28 @@
         <f t="shared" si="8"/>
         <v>0.33845821169856199</v>
       </c>
-    </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AE25" s="12">
+        <f t="shared" si="9"/>
+        <v>0.51474640129877935</v>
+      </c>
+      <c r="AF25" s="12">
+        <f t="shared" si="10"/>
+        <v>6.2792180972423041E-3</v>
+      </c>
+      <c r="AG25" s="12">
+        <f t="shared" si="11"/>
+        <v>3.9766606889059211</v>
+      </c>
+      <c r="AH25" s="12">
+        <f t="shared" si="12"/>
+        <v>25.960332066207407</v>
+      </c>
+      <c r="AI25" s="12">
+        <f t="shared" si="13"/>
+        <v>0.33845821169856199</v>
+      </c>
+    </row>
+    <row r="26" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A26" s="9">
         <v>2021</v>
       </c>
@@ -2820,13 +3307,13 @@
         <v>-3.3000000000000002E-2</v>
       </c>
       <c r="D26" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>-3.3222591362126241E-2</v>
       </c>
       <c r="E26" s="2">
         <v>0.30199999999999999</v>
       </c>
-      <c r="F26" s="2">
+      <c r="F26" s="9">
         <f t="shared" si="0"/>
         <v>8.7881999999999998</v>
       </c>
@@ -2868,7 +3355,7 @@
         <v>25845</v>
       </c>
       <c r="V26" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>8.7881999999999998</v>
       </c>
       <c r="W26" s="2">
@@ -2899,8 +3386,28 @@
         <f t="shared" si="8"/>
         <v>0.34003482298316889</v>
       </c>
-    </row>
-    <row r="27" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AE26" s="12">
+        <f t="shared" si="9"/>
+        <v>0.51760781863834593</v>
+      </c>
+      <c r="AF26" s="12">
+        <f t="shared" si="10"/>
+        <v>5.9500342144607242E-3</v>
+      </c>
+      <c r="AG26" s="12">
+        <f t="shared" si="11"/>
+        <v>3.8695075521158406</v>
+      </c>
+      <c r="AH26" s="12">
+        <f t="shared" si="12"/>
+        <v>26.054583066184389</v>
+      </c>
+      <c r="AI26" s="12">
+        <f t="shared" si="13"/>
+        <v>0.34003482298316889</v>
+      </c>
+    </row>
+    <row r="27" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A27" s="9">
         <v>2022</v>
       </c>
@@ -2911,13 +3418,13 @@
         <v>-3.9E-2</v>
       </c>
       <c r="D27" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>-3.7800687285223414E-2</v>
       </c>
       <c r="E27" s="2">
         <v>0.31</v>
       </c>
-      <c r="F27" s="2">
+      <c r="F27" s="9">
         <f t="shared" si="0"/>
         <v>8.68</v>
       </c>
@@ -2959,7 +3466,7 @@
         <v>26201</v>
       </c>
       <c r="V27" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>8.68</v>
       </c>
       <c r="W27" s="2">
@@ -2990,8 +3497,28 @@
         <f t="shared" si="8"/>
         <v>0.33128506545551695</v>
       </c>
-    </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AE27" s="12">
+        <f t="shared" si="9"/>
+        <v>0.51407578325964032</v>
+      </c>
+      <c r="AF27" s="12">
+        <f t="shared" si="10"/>
+        <v>5.9675440627912722E-3</v>
+      </c>
+      <c r="AG27" s="12">
+        <f t="shared" si="11"/>
+        <v>3.8624968121362939</v>
+      </c>
+      <c r="AH27" s="12">
+        <f t="shared" si="12"/>
+        <v>26.211720593722834</v>
+      </c>
+      <c r="AI27" s="12">
+        <f t="shared" si="13"/>
+        <v>0.33128506545551695</v>
+      </c>
+    </row>
+    <row r="28" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A28" s="9">
         <v>2023</v>
       </c>
@@ -3043,8 +3570,28 @@
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="30" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AE28" s="12" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AF28" s="12" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG28" s="12" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AH28" s="12" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AI28" s="12" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="30" spans="1:35" x14ac:dyDescent="0.2">
       <c r="V30" s="3" t="s">
         <v>36</v>
       </c>
@@ -3070,7 +3617,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="31" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B31" s="2" t="s">
         <v>57</v>
       </c>
@@ -3083,7 +3630,7 @@
       <c r="E31" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="F31" s="2" t="s">
+      <c r="F31" s="9" t="s">
         <v>57</v>
       </c>
       <c r="G31" s="2" t="s">
@@ -3105,7 +3652,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="32" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B32" s="11" t="s">
         <v>61</v>
       </c>

--- a/shs_ipat_data.xlsx
+++ b/shs_ipat_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10414"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tk/Documents/Studium/SHS_Economic_Growth_and_Sustainability/analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A516A0FA-A7C9-B441-88E2-FD46006D9057}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A9CD0EE-46BE-C046-971B-9D56FE0809D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2400" yWindow="3540" windowWidth="31200" windowHeight="15500" activeTab="1" xr2:uid="{A18B0547-13CD-FE4C-957C-071F0095D41C}"/>
+    <workbookView xWindow="31180" yWindow="1460" windowWidth="16800" windowHeight="19360" activeTab="1" xr2:uid="{A18B0547-13CD-FE4C-957C-071F0095D41C}"/>
   </bookViews>
   <sheets>
     <sheet name="Switzerland" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="102">
   <si>
     <t>Year</t>
   </si>
@@ -292,6 +292,60 @@
   <si>
     <t>Share Private Housing from Reports</t>
   </si>
+  <si>
+    <t>© Statistisches Bundesamt (Destatis), 2023 | Stand: 17.04.2024 / 20:31:50</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>Baumaßnahmen an bestehenden gebäuden</t>
+  </si>
+  <si>
+    <t>Living Rooms in Neubauten</t>
+  </si>
+  <si>
+    <t>Living Rooms in bestehenden</t>
+  </si>
+  <si>
+    <t>total</t>
+  </si>
+  <si>
+    <t>new DW old</t>
+  </si>
+  <si>
+    <t>new Rooms old</t>
+  </si>
+  <si>
+    <t>new sqm old</t>
+  </si>
+  <si>
+    <t>in bestehenden Gebäuden</t>
+  </si>
+  <si>
+    <t>abgänge</t>
+  </si>
+  <si>
+    <t>Baufertigstellungen Neubauten</t>
+  </si>
+  <si>
+    <t>CD tot</t>
+  </si>
+  <si>
+    <t>DW tot</t>
+  </si>
+  <si>
+    <t>sqm tot</t>
+  </si>
+  <si>
+    <t>DW new</t>
+  </si>
+  <si>
+    <t>LR new</t>
+  </si>
+  <si>
+    <t>A new</t>
+  </si>
 </sst>
 </file>
 
@@ -306,7 +360,7 @@
     <numFmt numFmtId="167" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="168" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -358,6 +412,12 @@
       <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -395,7 +455,7 @@
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
@@ -436,6 +496,17 @@
     <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Comma [0] 2" xfId="7" xr:uid="{3B33908A-D5AE-4A8D-B85C-45B07B1BFC2B}"/>
@@ -2296,17 +2367,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C513AF53-9CB1-EA4A-BF09-48D20F8336F2}">
-  <dimension ref="A1:AP40"/>
+  <dimension ref="A1:AU51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B2" sqref="B2"/>
+      <pane xSplit="1" topLeftCell="M1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12" style="23" customWidth="1"/>
-    <col min="2" max="2" width="20.83203125" customWidth="1"/>
+    <col min="2" max="2" width="20.83203125" style="24" customWidth="1"/>
     <col min="3" max="3" width="14.1640625" customWidth="1"/>
     <col min="4" max="4" width="14.83203125" customWidth="1"/>
     <col min="5" max="6" width="11.33203125" customWidth="1"/>
@@ -2315,18 +2386,21 @@
     <col min="13" max="13" width="19" customWidth="1"/>
     <col min="14" max="14" width="14.6640625" customWidth="1"/>
     <col min="15" max="15" width="14.83203125" customWidth="1"/>
-    <col min="16" max="23" width="20.83203125" customWidth="1"/>
-    <col min="27" max="34" width="20.83203125" customWidth="1"/>
-    <col min="36" max="40" width="20.83203125" customWidth="1"/>
-    <col min="42" max="42" width="20.83203125" customWidth="1"/>
+    <col min="16" max="30" width="20.83203125" customWidth="1"/>
+    <col min="32" max="39" width="20.83203125" customWidth="1"/>
+    <col min="41" max="45" width="20.83203125" customWidth="1"/>
+    <col min="47" max="47" width="20.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" s="23" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:47" s="23" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23" t="s">
-        <v>31</v>
+      <c r="B1" s="27" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1" s="23" t="s">
+        <v>85</v>
       </c>
       <c r="G1" s="23" t="s">
         <v>75</v>
@@ -2341,71 +2415,80 @@
         <v>33</v>
       </c>
       <c r="P1" s="23" t="s">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="Q1" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="S1" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="T1" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="T1" s="23" t="s">
-        <v>5</v>
-      </c>
       <c r="U1" s="23" t="s">
-        <v>78</v>
-      </c>
-      <c r="V1" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="W1" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="X1" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="Z1" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="AA1" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="W1" s="23" t="s">
-        <v>79</v>
-      </c>
-      <c r="AA1" s="23" t="s">
+      <c r="AB1" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="AD1" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="AF1" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="AB1" s="23" t="s">
+      <c r="AG1" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="AC1" s="23" t="s">
+      <c r="AH1" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="AD1" s="23" t="s">
+      <c r="AI1" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="AE1" s="23" t="s">
+      <c r="AJ1" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="AF1" s="23" t="s">
+      <c r="AK1" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="AG1" s="23" t="s">
+      <c r="AL1" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="AH1" s="23" t="s">
+      <c r="AM1" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="AJ1" s="23" t="s">
+      <c r="AO1" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="AK1" s="23" t="s">
+      <c r="AP1" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="AL1" s="23" t="s">
+      <c r="AQ1" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="AM1" s="23" t="s">
+      <c r="AR1" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="AN1" s="23" t="s">
+      <c r="AS1" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="AP1" s="23" t="s">
+      <c r="AU1" s="23" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:42" ht="69" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" t="s">
+    <row r="2" spans="1:47" ht="69" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="24" t="s">
         <v>48</v>
       </c>
       <c r="C2" t="s">
@@ -2457,2823 +2540,3864 @@
         <v>61</v>
       </c>
       <c r="S2" t="s">
+        <v>94</v>
+      </c>
+      <c r="T2" t="s">
         <v>62</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
+        <v>95</v>
+      </c>
+      <c r="V2" t="s">
+        <v>86</v>
+      </c>
+      <c r="W2" t="s">
+        <v>89</v>
+      </c>
+      <c r="X2" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>89</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB2" t="s">
         <v>63</v>
       </c>
-      <c r="U2" t="s">
-        <v>64</v>
-      </c>
-      <c r="V2" t="s">
-        <v>62</v>
-      </c>
-      <c r="W2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="3" spans="1:42" ht="16" x14ac:dyDescent="0.2"/>
-    <row r="4" spans="1:42" ht="16" x14ac:dyDescent="0.2">
+      <c r="AC2" t="s">
+        <v>93</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" spans="1:47" ht="16" x14ac:dyDescent="0.2"/>
+    <row r="4" spans="1:47" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="23">
-        <v>1990</v>
-      </c>
-      <c r="B4">
-        <v>27.501999999999999</v>
+        <v>1980</v>
+      </c>
+      <c r="B4" s="28">
+        <v>32.520000000000003</v>
       </c>
       <c r="G4">
-        <f xml:space="preserve"> B4 * F4 / 100</f>
-        <v>0</v>
-      </c>
-      <c r="O4">
-        <f xml:space="preserve"> M4 + N4</f>
-        <v>0</v>
-      </c>
-      <c r="AA4">
-        <f t="shared" ref="AA4:AA28" si="0" xml:space="preserve"> G4</f>
-        <v>0</v>
-      </c>
-      <c r="AB4">
+        <f t="shared" ref="G4:G11" si="0" xml:space="preserve"> B4 * F4 / 100</f>
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>61657</v>
+      </c>
+      <c r="W4">
+        <f xml:space="preserve"> U4 + V4</f>
+        <v>0</v>
+      </c>
+      <c r="Z4">
+        <f xml:space="preserve"> X4 + Y4</f>
+        <v>0</v>
+      </c>
+      <c r="AD4">
+        <f xml:space="preserve"> AB4 + AC4</f>
+        <v>0</v>
+      </c>
+      <c r="AF4">
+        <f xml:space="preserve"> G4</f>
+        <v>0</v>
+      </c>
+      <c r="AG4">
         <f xml:space="preserve"> L4 * 1000</f>
-        <v>0</v>
-      </c>
-      <c r="AC4" t="e">
+        <v>61657000</v>
+      </c>
+      <c r="AH4" t="e">
         <f xml:space="preserve"> L4 / O4</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD4" t="e">
+      <c r="AI4">
         <f xml:space="preserve"> O4 / L4</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AE4" t="e">
+        <v>0</v>
+      </c>
+      <c r="AJ4" t="e">
         <f xml:space="preserve"> P4 / (O4 * 1000)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AF4" t="e">
-        <f xml:space="preserve"> T4 / P4</f>
+      <c r="AK4" t="e">
+        <f xml:space="preserve"> U4 / P4</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AG4" t="e">
-        <f xml:space="preserve"> W4 * 1000 / T4</f>
+      <c r="AL4" t="e">
+        <f t="shared" ref="AL4:AL39" si="1" xml:space="preserve"> AB4 * 1000 / U4</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AH4" t="e">
-        <f t="shared" ref="AH4:AH28" si="1" xml:space="preserve"> G4 * 1000000 / (W4 * 1000)</f>
+      <c r="AM4" t="e">
+        <f xml:space="preserve"> G4 * 1000000 / (AB4 * 1000)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AJ4" t="e">
+      <c r="AO4">
         <f xml:space="preserve"> P4 / (L4*1000)</f>
+        <v>0</v>
+      </c>
+      <c r="AP4" t="e">
+        <f xml:space="preserve"> U4 / P4</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AK4" t="e">
-        <f xml:space="preserve"> T4 / P4</f>
+      <c r="AQ4" t="e">
+        <f t="shared" ref="AQ4:AQ39" si="2" xml:space="preserve"> X4 / U4</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AL4" t="e">
-        <f xml:space="preserve"> U4 / T4</f>
+      <c r="AR4" t="e">
+        <f t="shared" ref="AR4:AR39" si="3" xml:space="preserve"> (AB4 * 1000) / X4</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AM4" t="e">
-        <f xml:space="preserve"> (W4 * 1000) / U4</f>
+      <c r="AS4" t="e">
+        <f xml:space="preserve"> G4 * 1000000 / (AB4 * 1000)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AN4" t="e">
-        <f xml:space="preserve"> G4 * 1000000 / (W4 * 1000)</f>
+      <c r="AU4">
+        <f xml:space="preserve"> U4 / (L4 * 1000)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:47" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" s="23">
+        <v>1985</v>
+      </c>
+      <c r="B5" s="28">
+        <v>22.808</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>61020</v>
+      </c>
+      <c r="W5">
+        <f t="shared" ref="W5:W38" si="4" xml:space="preserve"> U5 + V5</f>
+        <v>0</v>
+      </c>
+      <c r="Z5">
+        <f t="shared" ref="Z5:Z38" si="5" xml:space="preserve"> X5 + Y5</f>
+        <v>0</v>
+      </c>
+      <c r="AD5">
+        <f t="shared" ref="AD5:AD38" si="6" xml:space="preserve"> AB5 + AC5</f>
+        <v>0</v>
+      </c>
+      <c r="AF5">
+        <f xml:space="preserve"> G5</f>
+        <v>0</v>
+      </c>
+      <c r="AG5">
+        <f xml:space="preserve"> L5 * 1000</f>
+        <v>61020000</v>
+      </c>
+      <c r="AH5" t="e">
+        <f xml:space="preserve"> L5 / O5</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AP4" t="e">
-        <f t="shared" ref="AP4:AP28" si="2" xml:space="preserve"> T4 / (L4 * 1000)</f>
+      <c r="AI5">
+        <f xml:space="preserve"> O5 / L5</f>
+        <v>0</v>
+      </c>
+      <c r="AJ5" t="e">
+        <f xml:space="preserve"> P5 / (O5 * 1000)</f>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="5" spans="1:42" ht="16" x14ac:dyDescent="0.2">
-      <c r="A5" s="23">
-        <v>2000</v>
-      </c>
-      <c r="B5">
-        <v>35.781999999999996</v>
-      </c>
-      <c r="G5">
-        <f t="shared" ref="G5:G27" si="3" xml:space="preserve"> B5 * F5 / 100</f>
-        <v>0</v>
-      </c>
-      <c r="L5">
-        <v>82260</v>
-      </c>
-      <c r="O5">
-        <f t="shared" ref="O5:O28" si="4" xml:space="preserve"> M5 + N5</f>
-        <v>0</v>
-      </c>
-      <c r="P5">
-        <v>3179728</v>
-      </c>
-      <c r="AA5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AB5">
-        <f t="shared" ref="AB5:AB28" si="5" xml:space="preserve"> L5 * 1000</f>
-        <v>82260000</v>
-      </c>
-      <c r="AC5" t="e">
-        <f t="shared" ref="AC5:AC28" si="6" xml:space="preserve"> L5 / O5</f>
+      <c r="AK5" t="e">
+        <f xml:space="preserve"> U5 / P5</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD5">
-        <f t="shared" ref="AD5:AD28" si="7" xml:space="preserve"> O5 / L5</f>
-        <v>0</v>
-      </c>
-      <c r="AE5" t="e">
-        <f t="shared" ref="AE5:AE28" si="8" xml:space="preserve"> P5 / (O5 * 1000)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AF5">
-        <f t="shared" ref="AF5:AF28" si="9" xml:space="preserve"> T5 / P5</f>
-        <v>0</v>
-      </c>
-      <c r="AG5" t="e">
-        <f t="shared" ref="AG5:AG28" si="10" xml:space="preserve"> W5 * 1000 / T5</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AH5" t="e">
+      <c r="AL5" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AJ5">
-        <f t="shared" ref="AJ5:AJ28" si="11" xml:space="preserve"> P5 / (L5*1000)</f>
-        <v>3.8654607342572332E-2</v>
-      </c>
-      <c r="AK5">
-        <f t="shared" ref="AK5:AK28" si="12" xml:space="preserve"> T5 / P5</f>
-        <v>0</v>
-      </c>
-      <c r="AL5" t="e">
-        <f t="shared" ref="AL5:AL28" si="13" xml:space="preserve"> U5 / T5</f>
+      <c r="AM5" t="e">
+        <f xml:space="preserve"> G5 * 1000000 / (AB5 * 1000)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AM5" t="e">
-        <f t="shared" ref="AM5:AM28" si="14" xml:space="preserve"> (W5 * 1000) / U5</f>
+      <c r="AO5">
+        <f xml:space="preserve"> P5 / (L5*1000)</f>
+        <v>0</v>
+      </c>
+      <c r="AP5" t="e">
+        <f xml:space="preserve"> U5 / P5</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AN5" t="e">
-        <f t="shared" ref="AN5:AN28" si="15" xml:space="preserve"> G5 * 1000000 / (W5 * 1000)</f>
+      <c r="AQ5" t="e">
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AP5">
+      <c r="AR5" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AS5" t="e">
+        <f xml:space="preserve"> G5 * 1000000 / (AB5 * 1000)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AU5">
+        <f xml:space="preserve"> U5 / (L5 * 1000)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:47" ht="16" x14ac:dyDescent="0.2">
+      <c r="A6" s="23">
+        <v>1990</v>
+      </c>
+      <c r="B6" s="28">
+        <v>27.501999999999999</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>79753</v>
+      </c>
+      <c r="O6">
+        <f xml:space="preserve"> M6 + N6</f>
+        <v>0</v>
+      </c>
+      <c r="W6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Z6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AD6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF6">
+        <f xml:space="preserve"> G6</f>
+        <v>0</v>
+      </c>
+      <c r="AG6">
+        <f xml:space="preserve"> L6 * 1000</f>
+        <v>79753000</v>
+      </c>
+      <c r="AH6" t="e">
+        <f xml:space="preserve"> L6 / O6</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AI6">
+        <f xml:space="preserve"> O6 / L6</f>
+        <v>0</v>
+      </c>
+      <c r="AJ6" t="e">
+        <f xml:space="preserve"> P6 / (O6 * 1000)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AK6" t="e">
+        <f xml:space="preserve"> U6 / P6</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AL6" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AM6" t="e">
+        <f xml:space="preserve"> G6 * 1000000 / (AB6 * 1000)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AO6">
+        <f xml:space="preserve"> P6 / (L6*1000)</f>
+        <v>0</v>
+      </c>
+      <c r="AP6" t="e">
+        <f xml:space="preserve"> U6 / P6</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AQ6" t="e">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:42" ht="16" x14ac:dyDescent="0.2">
-      <c r="A6" s="23">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AR6" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AS6" t="e">
+        <f xml:space="preserve"> G6 * 1000000 / (AB6 * 1000)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AU6">
+        <f xml:space="preserve"> U6 / (L6 * 1000)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:47" ht="16" x14ac:dyDescent="0.2">
+      <c r="A7" s="23">
+        <v>1991</v>
+      </c>
+      <c r="L7">
+        <v>80274</v>
+      </c>
+      <c r="W7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Z7">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AD7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:47" ht="16" x14ac:dyDescent="0.2">
+      <c r="A8" s="23">
+        <v>1992</v>
+      </c>
+      <c r="L8">
+        <v>80974</v>
+      </c>
+      <c r="W8">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Z8">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AD8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:47" ht="16" x14ac:dyDescent="0.2">
+      <c r="A9" s="23">
+        <v>1993</v>
+      </c>
+      <c r="L9">
+        <v>81338</v>
+      </c>
+      <c r="U9">
+        <v>394120</v>
+      </c>
+      <c r="W9">
+        <v>443515</v>
+      </c>
+      <c r="Z9">
+        <v>1930512</v>
+      </c>
+      <c r="AB9">
+        <v>35333</v>
+      </c>
+      <c r="AD9">
+        <v>40573</v>
+      </c>
+    </row>
+    <row r="10" spans="1:47" ht="16" x14ac:dyDescent="0.2">
+      <c r="A10" s="23">
+        <v>1994</v>
+      </c>
+      <c r="L10">
+        <v>81538</v>
+      </c>
+      <c r="P10" s="25">
+        <v>34700242</v>
+      </c>
+      <c r="Q10">
+        <v>2893549</v>
+      </c>
+      <c r="U10">
+        <v>501728</v>
+      </c>
+      <c r="W10">
+        <v>557938</v>
+      </c>
+      <c r="Z10">
+        <v>2428895</v>
+      </c>
+      <c r="AB10">
+        <v>45165</v>
+      </c>
+      <c r="AD10">
+        <v>51183</v>
+      </c>
+    </row>
+    <row r="11" spans="1:47" ht="16" x14ac:dyDescent="0.2">
+      <c r="A11" s="23">
+        <v>1995</v>
+      </c>
+      <c r="B11" s="28">
+        <v>38.491999999999997</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>81817</v>
+      </c>
+      <c r="O11">
+        <f t="shared" ref="O11:O16" si="7" xml:space="preserve"> M11 + N11</f>
+        <v>0</v>
+      </c>
+      <c r="P11" s="25">
+        <v>35266623</v>
+      </c>
+      <c r="Q11" s="25">
+        <v>2944812</v>
+      </c>
+      <c r="U11">
+        <v>524606</v>
+      </c>
+      <c r="W11">
+        <v>584760</v>
+      </c>
+      <c r="X11">
+        <v>2220355</v>
+      </c>
+      <c r="Z11">
+        <v>2493667</v>
+      </c>
+      <c r="AB11">
+        <v>46135</v>
+      </c>
+      <c r="AD11">
+        <v>52413</v>
+      </c>
+      <c r="AF11">
+        <f xml:space="preserve"> G11</f>
+        <v>0</v>
+      </c>
+      <c r="AG11">
+        <f xml:space="preserve"> L11 * 1000</f>
+        <v>81817000</v>
+      </c>
+      <c r="AH11" t="e">
+        <f xml:space="preserve"> L11 / O11</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AI11">
+        <f xml:space="preserve"> O11 / L11</f>
+        <v>0</v>
+      </c>
+      <c r="AJ11" t="e">
+        <f xml:space="preserve"> P11 / (O11 * 1000)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AK11">
+        <f xml:space="preserve"> U11 / P11</f>
+        <v>1.4875424845752881E-2</v>
+      </c>
+      <c r="AL11">
+        <f t="shared" si="1"/>
+        <v>87.942188995169715</v>
+      </c>
+      <c r="AM11">
+        <f xml:space="preserve"> G11 * 1000000 / (AB11 * 1000)</f>
+        <v>0</v>
+      </c>
+      <c r="AO11">
+        <f xml:space="preserve"> P11 / (L11*1000)</f>
+        <v>0.43104272950609285</v>
+      </c>
+      <c r="AP11">
+        <f xml:space="preserve"> U11 / P11</f>
+        <v>1.4875424845752881E-2</v>
+      </c>
+      <c r="AQ11">
+        <f t="shared" si="2"/>
+        <v>4.2324239524519349</v>
+      </c>
+      <c r="AR11">
+        <f t="shared" si="3"/>
+        <v>20.77820889001984</v>
+      </c>
+      <c r="AS11">
+        <f xml:space="preserve"> G11 * 1000000 / (AB11 * 1000)</f>
+        <v>0</v>
+      </c>
+      <c r="AU11">
+        <f xml:space="preserve"> U11 / (L11 * 1000)</f>
+        <v>6.4119437280760723E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:47" ht="16" x14ac:dyDescent="0.2">
+      <c r="A12" s="23">
+        <v>1996</v>
+      </c>
+      <c r="L12">
+        <v>82012</v>
+      </c>
+      <c r="P12" s="25">
+        <v>35789160</v>
+      </c>
+      <c r="Q12" s="25">
+        <v>2992490</v>
+      </c>
+      <c r="U12">
+        <v>485249</v>
+      </c>
+      <c r="W12">
+        <v>543186</v>
+      </c>
+      <c r="Z12">
+        <v>2328154</v>
+      </c>
+      <c r="AB12">
+        <v>42915</v>
+      </c>
+      <c r="AD12">
+        <v>49021</v>
+      </c>
+    </row>
+    <row r="13" spans="1:47" ht="16" x14ac:dyDescent="0.2">
+      <c r="A13" s="23">
+        <v>1997</v>
+      </c>
+      <c r="L13">
+        <v>82057</v>
+      </c>
+      <c r="P13" s="25">
+        <v>36330848</v>
+      </c>
+      <c r="Q13" s="25">
+        <v>3043199</v>
+      </c>
+      <c r="U13">
+        <v>501120</v>
+      </c>
+      <c r="W13">
+        <v>560965</v>
+      </c>
+      <c r="Z13">
+        <v>2458034</v>
+      </c>
+      <c r="AB13">
+        <v>45461</v>
+      </c>
+      <c r="AD13">
+        <v>51976</v>
+      </c>
+    </row>
+    <row r="14" spans="1:47" ht="16" x14ac:dyDescent="0.2">
+      <c r="A14" s="23">
+        <v>1998</v>
+      </c>
+      <c r="L14">
+        <v>82037</v>
+      </c>
+      <c r="P14" s="25">
+        <v>36796664</v>
+      </c>
+      <c r="Q14" s="25">
+        <v>3089809</v>
+      </c>
+      <c r="U14">
+        <v>432237</v>
+      </c>
+      <c r="W14">
+        <v>487067</v>
+      </c>
+      <c r="Z14">
+        <v>2247332</v>
+      </c>
+      <c r="AB14">
+        <v>41915</v>
+      </c>
+      <c r="AD14">
+        <v>48051</v>
+      </c>
+    </row>
+    <row r="15" spans="1:47" ht="16" x14ac:dyDescent="0.2">
+      <c r="A15" s="23">
+        <v>1999</v>
+      </c>
+      <c r="L15">
+        <v>82163</v>
+      </c>
+      <c r="P15" s="25">
+        <v>37240290</v>
+      </c>
+      <c r="Q15" s="25">
+        <v>3136656</v>
+      </c>
+      <c r="U15">
+        <v>406567</v>
+      </c>
+      <c r="W15">
+        <v>460546</v>
+      </c>
+      <c r="Z15">
+        <v>2206902</v>
+      </c>
+      <c r="AB15">
+        <v>41665</v>
+      </c>
+      <c r="AD15">
+        <v>47916</v>
+      </c>
+    </row>
+    <row r="16" spans="1:47" ht="16" x14ac:dyDescent="0.2">
+      <c r="A16" s="23">
+        <v>2000</v>
+      </c>
+      <c r="B16" s="28">
+        <v>35.781999999999996</v>
+      </c>
+      <c r="G16">
+        <f t="shared" ref="G16:G38" si="8" xml:space="preserve"> B16 * F16 / 100</f>
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>82260</v>
+      </c>
+      <c r="O16">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="P16" s="25">
+        <v>37629526</v>
+      </c>
+      <c r="Q16" s="25">
+        <v>3179728</v>
+      </c>
+      <c r="U16">
+        <v>368531</v>
+      </c>
+      <c r="W16">
+        <v>412320</v>
+      </c>
+      <c r="X16">
+        <v>1818050</v>
+      </c>
+      <c r="Z16">
+        <v>2042885</v>
+      </c>
+      <c r="AB16">
+        <v>39115</v>
+      </c>
+      <c r="AD16">
+        <v>44704</v>
+      </c>
+      <c r="AF16">
+        <f t="shared" ref="AF16:AF39" si="9" xml:space="preserve"> G16</f>
+        <v>0</v>
+      </c>
+      <c r="AG16">
+        <f t="shared" ref="AG16:AG39" si="10" xml:space="preserve"> L16 * 1000</f>
+        <v>82260000</v>
+      </c>
+      <c r="AH16" t="e">
+        <f t="shared" ref="AH16:AH39" si="11" xml:space="preserve"> L16 / O16</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AI16">
+        <f t="shared" ref="AI16:AI39" si="12" xml:space="preserve"> O16 / L16</f>
+        <v>0</v>
+      </c>
+      <c r="AJ16" t="e">
+        <f t="shared" ref="AJ16:AJ39" si="13" xml:space="preserve"> P16 / (O16 * 1000)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AK16">
+        <f t="shared" ref="AK16:AK39" si="14" xml:space="preserve"> U16 / P16</f>
+        <v>9.7936657506661126E-3</v>
+      </c>
+      <c r="AL16">
+        <f t="shared" si="1"/>
+        <v>106.13761121859491</v>
+      </c>
+      <c r="AM16">
+        <f t="shared" ref="AM16:AM39" si="15" xml:space="preserve"> G16 * 1000000 / (AB16 * 1000)</f>
+        <v>0</v>
+      </c>
+      <c r="AO16">
+        <f t="shared" ref="AO16:AO39" si="16" xml:space="preserve"> P16 / (L16*1000)</f>
+        <v>0.4574462193046438</v>
+      </c>
+      <c r="AP16">
+        <f t="shared" ref="AP16:AP39" si="17" xml:space="preserve"> U16 / P16</f>
+        <v>9.7936657506661126E-3</v>
+      </c>
+      <c r="AQ16">
+        <f t="shared" si="2"/>
+        <v>4.9332349246060714</v>
+      </c>
+      <c r="AR16">
+        <f t="shared" si="3"/>
+        <v>21.51480982371222</v>
+      </c>
+      <c r="AS16">
+        <f t="shared" ref="AS16:AS39" si="18" xml:space="preserve"> G16 * 1000000 / (AB16 * 1000)</f>
+        <v>0</v>
+      </c>
+      <c r="AU16">
+        <f t="shared" ref="AU16:AU39" si="19" xml:space="preserve"> U16 / (L16 * 1000)</f>
+        <v>4.4800753707755899E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:47" ht="16" x14ac:dyDescent="0.2">
+      <c r="A17" s="23">
         <v>2001</v>
       </c>
-      <c r="G6">
+      <c r="G17">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>82440</v>
+      </c>
+      <c r="O17">
+        <v>38456</v>
+      </c>
+      <c r="P17" s="25">
+        <v>37921153</v>
+      </c>
+      <c r="Q17" s="25">
+        <v>3213967</v>
+      </c>
+      <c r="T17">
+        <v>256564</v>
+      </c>
+      <c r="U17">
+        <v>285925</v>
+      </c>
+      <c r="V17" s="25">
+        <v>33549</v>
+      </c>
+      <c r="W17">
+        <f t="shared" si="4"/>
+        <v>319474</v>
+      </c>
+      <c r="X17">
+        <v>1436982</v>
+      </c>
+      <c r="Y17" s="25">
+        <v>189693</v>
+      </c>
+      <c r="Z17">
+        <f t="shared" si="5"/>
+        <v>1626675</v>
+      </c>
+      <c r="AA17">
+        <v>28868</v>
+      </c>
+      <c r="AB17">
+        <v>31378</v>
+      </c>
+      <c r="AC17" s="25">
+        <v>4740</v>
+      </c>
+      <c r="AD17">
+        <f t="shared" si="6"/>
+        <v>36118</v>
+      </c>
+      <c r="AF17">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AG17">
+        <f t="shared" si="10"/>
+        <v>82440000</v>
+      </c>
+      <c r="AH17">
+        <f t="shared" si="11"/>
+        <v>2.1437486998127731</v>
+      </c>
+      <c r="AI17">
+        <f t="shared" si="12"/>
+        <v>0.46647258612324116</v>
+      </c>
+      <c r="AJ17">
+        <f t="shared" si="13"/>
+        <v>0.98609197524443515</v>
+      </c>
+      <c r="AK17">
+        <f t="shared" si="14"/>
+        <v>7.5399869829907333E-3</v>
+      </c>
+      <c r="AL17">
+        <f t="shared" si="1"/>
+        <v>109.74206522689516</v>
+      </c>
+      <c r="AM17">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AO17">
+        <f t="shared" si="16"/>
+        <v>0.45998487384764675</v>
+      </c>
+      <c r="AP17">
+        <f t="shared" si="17"/>
+        <v>7.5399869829907333E-3</v>
+      </c>
+      <c r="AQ17">
+        <f t="shared" si="2"/>
+        <v>5.0257305237387424</v>
+      </c>
+      <c r="AR17">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L6">
-        <v>82440</v>
-      </c>
-      <c r="O6">
-        <v>38456</v>
-      </c>
-      <c r="P6">
-        <v>3213967</v>
-      </c>
-      <c r="S6">
-        <v>256564</v>
-      </c>
-      <c r="T6">
-        <v>285925</v>
-      </c>
-      <c r="U6">
-        <v>1436982</v>
-      </c>
-      <c r="V6">
-        <v>28868</v>
-      </c>
-      <c r="W6">
-        <v>31378</v>
-      </c>
-      <c r="AA6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AB6">
+        <v>21.836042483482743</v>
+      </c>
+      <c r="AS17">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AU17">
+        <f t="shared" si="19"/>
+        <v>3.4682799611838915E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:47" ht="16" x14ac:dyDescent="0.2">
+      <c r="A18" s="23">
+        <v>2002</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>82537</v>
+      </c>
+      <c r="O18">
+        <v>38720</v>
+      </c>
+      <c r="P18" s="25">
+        <v>38157911</v>
+      </c>
+      <c r="Q18" s="25">
+        <v>3243361</v>
+      </c>
+      <c r="T18">
+        <v>243222</v>
+      </c>
+      <c r="U18">
+        <v>253700</v>
+      </c>
+      <c r="V18" s="25">
+        <v>29134</v>
+      </c>
+      <c r="W18">
+        <f t="shared" si="4"/>
+        <v>282834</v>
+      </c>
+      <c r="X18">
+        <v>1296151</v>
+      </c>
+      <c r="Y18" s="25">
+        <v>169462</v>
+      </c>
+      <c r="Z18">
         <f t="shared" si="5"/>
-        <v>82440000</v>
-      </c>
-      <c r="AC6">
+        <v>1465613</v>
+      </c>
+      <c r="AA18">
+        <v>28120</v>
+      </c>
+      <c r="AB18">
+        <v>28618</v>
+      </c>
+      <c r="AC18" s="25">
+        <v>4323</v>
+      </c>
+      <c r="AD18">
         <f t="shared" si="6"/>
-        <v>2.1437486998127731</v>
-      </c>
-      <c r="AD6">
-        <f t="shared" si="7"/>
-        <v>0.46647258612324116</v>
-      </c>
-      <c r="AE6">
+        <v>32941</v>
+      </c>
+      <c r="AF18">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AG18">
+        <f t="shared" si="10"/>
+        <v>82537000</v>
+      </c>
+      <c r="AH18">
+        <f t="shared" si="11"/>
+        <v>2.1316373966942148</v>
+      </c>
+      <c r="AI18">
+        <f t="shared" si="12"/>
+        <v>0.46912293880320344</v>
+      </c>
+      <c r="AJ18">
+        <f t="shared" si="13"/>
+        <v>0.98548323863636367</v>
+      </c>
+      <c r="AK18">
+        <f t="shared" si="14"/>
+        <v>6.6486868214562372E-3</v>
+      </c>
+      <c r="AL18">
+        <f t="shared" si="1"/>
+        <v>112.80252266456445</v>
+      </c>
+      <c r="AM18">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AO18">
+        <f t="shared" si="16"/>
+        <v>0.46231279305038953</v>
+      </c>
+      <c r="AP18">
+        <f t="shared" si="17"/>
+        <v>6.6486868214562372E-3</v>
+      </c>
+      <c r="AQ18">
+        <f t="shared" si="2"/>
+        <v>5.1089909341742219</v>
+      </c>
+      <c r="AR18">
+        <f t="shared" si="3"/>
+        <v>22.079217622020892</v>
+      </c>
+      <c r="AS18">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AU18">
+        <f t="shared" si="19"/>
+        <v>3.0737729745447498E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:47" ht="16" x14ac:dyDescent="0.2">
+      <c r="A19" s="23">
+        <v>2003</v>
+      </c>
+      <c r="G19">
         <f t="shared" si="8"/>
-        <v>8.3575176825462866E-2</v>
-      </c>
-      <c r="AF6">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>1.8030889999999999</v>
+      </c>
+      <c r="I19">
+        <v>0.61658749999999996</v>
+      </c>
+      <c r="J19">
+        <v>0.5016777</v>
+      </c>
+      <c r="K19">
+        <f>H19-I19+J19</f>
+        <v>1.6881792</v>
+      </c>
+      <c r="L19">
+        <v>82532</v>
+      </c>
+      <c r="O19">
+        <v>38944</v>
+      </c>
+      <c r="P19" s="25">
+        <v>38369965</v>
+      </c>
+      <c r="Q19" s="25">
+        <v>3271962</v>
+      </c>
+      <c r="T19">
+        <v>263317</v>
+      </c>
+      <c r="U19">
+        <v>236088</v>
+      </c>
+      <c r="V19" s="25">
+        <v>26636</v>
+      </c>
+      <c r="W19">
+        <f t="shared" si="4"/>
+        <v>262724</v>
+      </c>
+      <c r="X19">
+        <v>1222172</v>
+      </c>
+      <c r="Y19" s="25">
+        <v>160932</v>
+      </c>
+      <c r="Z19">
+        <f t="shared" si="5"/>
+        <v>1383104</v>
+      </c>
+      <c r="AA19">
+        <v>31048</v>
+      </c>
+      <c r="AB19">
+        <v>27045</v>
+      </c>
+      <c r="AC19" s="25">
+        <v>4080</v>
+      </c>
+      <c r="AD19">
+        <f t="shared" si="6"/>
+        <v>31125</v>
+      </c>
+      <c r="AF19">
         <f t="shared" si="9"/>
-        <v>8.8963265646473652E-2</v>
-      </c>
-      <c r="AG6">
+        <v>0</v>
+      </c>
+      <c r="AG19">
         <f t="shared" si="10"/>
-        <v>109.74206522689516</v>
-      </c>
-      <c r="AH6">
+        <v>82532000</v>
+      </c>
+      <c r="AH19">
+        <f t="shared" si="11"/>
+        <v>2.1192481511914543</v>
+      </c>
+      <c r="AI19">
+        <f t="shared" si="12"/>
+        <v>0.47186545824649834</v>
+      </c>
+      <c r="AJ19">
+        <f t="shared" si="13"/>
+        <v>0.9852599887017256</v>
+      </c>
+      <c r="AK19">
+        <f t="shared" si="14"/>
+        <v>6.1529375906389282E-3</v>
+      </c>
+      <c r="AL19">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AJ6">
+        <v>114.55474229948155</v>
+      </c>
+      <c r="AM19">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AO19">
+        <f t="shared" si="16"/>
+        <v>0.46491015606067948</v>
+      </c>
+      <c r="AP19">
+        <f t="shared" si="17"/>
+        <v>6.1529375906389282E-3</v>
+      </c>
+      <c r="AQ19">
+        <f t="shared" si="2"/>
+        <v>5.1767645962522453</v>
+      </c>
+      <c r="AR19">
+        <f t="shared" si="3"/>
+        <v>22.128636558520405</v>
+      </c>
+      <c r="AS19">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AU19">
+        <f t="shared" si="19"/>
+        <v>2.8605631754955656E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:47" ht="16" x14ac:dyDescent="0.2">
+      <c r="A20" s="23">
+        <v>2004</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0.77823339999999996</v>
+      </c>
+      <c r="J20">
+        <v>0.53616379999999997</v>
+      </c>
+      <c r="L20">
+        <v>82501</v>
+      </c>
+      <c r="O20">
+        <v>39122</v>
+      </c>
+      <c r="P20" s="25">
+        <v>38586543</v>
+      </c>
+      <c r="Q20" s="25">
+        <v>3301278</v>
+      </c>
+      <c r="T20">
+        <v>236378</v>
+      </c>
+      <c r="U20">
+        <v>247795</v>
+      </c>
+      <c r="V20" s="25">
+        <v>25485</v>
+      </c>
+      <c r="W20">
+        <f t="shared" si="4"/>
+        <v>273280</v>
+      </c>
+      <c r="X20">
+        <v>1294358</v>
+      </c>
+      <c r="Y20" s="25">
+        <v>157134</v>
+      </c>
+      <c r="Z20">
+        <f t="shared" si="5"/>
+        <v>1451492</v>
+      </c>
+      <c r="AA20">
+        <v>27636</v>
+      </c>
+      <c r="AB20">
+        <v>28784</v>
+      </c>
+      <c r="AC20" s="25">
+        <v>4094</v>
+      </c>
+      <c r="AD20">
+        <f t="shared" si="6"/>
+        <v>32878</v>
+      </c>
+      <c r="AF20">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AG20">
+        <f t="shared" si="10"/>
+        <v>82501000</v>
+      </c>
+      <c r="AH20">
         <f t="shared" si="11"/>
-        <v>3.8985528869480833E-2</v>
-      </c>
-      <c r="AK6">
+        <v>2.1088134553448188</v>
+      </c>
+      <c r="AI20">
         <f t="shared" si="12"/>
-        <v>8.8963265646473652E-2</v>
-      </c>
-      <c r="AL6">
+        <v>0.47420031272348212</v>
+      </c>
+      <c r="AJ20">
         <f t="shared" si="13"/>
-        <v>5.0257305237387424</v>
-      </c>
-      <c r="AM6">
+        <v>0.98631314861203412</v>
+      </c>
+      <c r="AK20">
         <f t="shared" si="14"/>
-        <v>21.836042483482743</v>
-      </c>
-      <c r="AN6">
+        <v>6.4217983974361216E-3</v>
+      </c>
+      <c r="AL20">
+        <f t="shared" si="1"/>
+        <v>116.16053592687504</v>
+      </c>
+      <c r="AM20">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="AP6">
+      <c r="AO20">
+        <f t="shared" si="16"/>
+        <v>0.46771000351510889</v>
+      </c>
+      <c r="AP20">
+        <f t="shared" si="17"/>
+        <v>6.4217983974361216E-3</v>
+      </c>
+      <c r="AQ20">
         <f t="shared" si="2"/>
-        <v>3.4682799611838915E-3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:42" ht="16" x14ac:dyDescent="0.2">
-      <c r="A7" s="23">
-        <v>2002</v>
-      </c>
-      <c r="G7">
+        <v>5.223503299098045</v>
+      </c>
+      <c r="AR20">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L7">
-        <v>82537</v>
-      </c>
-      <c r="O7">
-        <v>38720</v>
-      </c>
-      <c r="P7">
-        <v>3243361</v>
-      </c>
-      <c r="S7">
-        <v>243222</v>
-      </c>
-      <c r="T7">
-        <v>253700</v>
-      </c>
-      <c r="U7">
-        <v>1296151</v>
-      </c>
-      <c r="V7">
-        <v>28120</v>
-      </c>
-      <c r="W7">
-        <v>28618</v>
-      </c>
-      <c r="AA7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AB7">
+        <v>22.23805160550636</v>
+      </c>
+      <c r="AS20">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AU20">
+        <f t="shared" si="19"/>
+        <v>3.0035393510381694E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:47" ht="16" x14ac:dyDescent="0.2">
+      <c r="A21" s="23">
+        <v>2005</v>
+      </c>
+      <c r="B21" s="28">
+        <v>27.042000000000002</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>1.832962</v>
+      </c>
+      <c r="I21">
+        <v>0.91016900000000001</v>
+      </c>
+      <c r="J21">
+        <v>0.37663010000000002</v>
+      </c>
+      <c r="K21">
+        <f t="shared" ref="K21:K38" si="20">H21-I21+J21</f>
+        <v>1.2994231000000001</v>
+      </c>
+      <c r="L21">
+        <v>82438</v>
+      </c>
+      <c r="O21">
+        <v>39178</v>
+      </c>
+      <c r="P21" s="25">
+        <v>38772437</v>
+      </c>
+      <c r="Q21" s="25">
+        <v>3326849</v>
+      </c>
+      <c r="T21">
+        <v>211706</v>
+      </c>
+      <c r="U21">
+        <v>213766</v>
+      </c>
+      <c r="V21" s="25">
+        <v>24946</v>
+      </c>
+      <c r="W21">
+        <f t="shared" si="4"/>
+        <v>238712</v>
+      </c>
+      <c r="X21">
+        <v>1117255</v>
+      </c>
+      <c r="Y21" s="25">
+        <v>148713</v>
+      </c>
+      <c r="Z21">
         <f t="shared" si="5"/>
-        <v>82537000</v>
-      </c>
-      <c r="AC7">
+        <v>1265968</v>
+      </c>
+      <c r="AA21">
+        <v>24703</v>
+      </c>
+      <c r="AB21">
+        <v>24983</v>
+      </c>
+      <c r="AC21" s="25">
+        <v>3855</v>
+      </c>
+      <c r="AD21">
         <f t="shared" si="6"/>
-        <v>2.1316373966942148</v>
-      </c>
-      <c r="AD7">
-        <f t="shared" si="7"/>
-        <v>0.46912293880320344</v>
-      </c>
-      <c r="AE7">
+        <v>28838</v>
+      </c>
+      <c r="AF21">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AG21">
+        <f t="shared" si="10"/>
+        <v>82438000</v>
+      </c>
+      <c r="AH21">
+        <f t="shared" si="11"/>
+        <v>2.1041911276736944</v>
+      </c>
+      <c r="AI21">
+        <f t="shared" si="12"/>
+        <v>0.4752420000485213</v>
+      </c>
+      <c r="AJ21">
+        <f t="shared" si="13"/>
+        <v>0.98964819541579463</v>
+      </c>
+      <c r="AK21">
+        <f t="shared" si="14"/>
+        <v>5.5133495993558513E-3</v>
+      </c>
+      <c r="AL21">
+        <f t="shared" si="1"/>
+        <v>116.87078394131902</v>
+      </c>
+      <c r="AM21">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AO21">
+        <f t="shared" si="16"/>
+        <v>0.47032238773381208</v>
+      </c>
+      <c r="AP21">
+        <f t="shared" si="17"/>
+        <v>5.5133495993558513E-3</v>
+      </c>
+      <c r="AQ21">
+        <f t="shared" si="2"/>
+        <v>5.2265327507648554</v>
+      </c>
+      <c r="AR21">
+        <f t="shared" si="3"/>
+        <v>22.361054548872012</v>
+      </c>
+      <c r="AS21">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AU21">
+        <f t="shared" si="19"/>
+        <v>2.5930517479803004E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:47" ht="16" x14ac:dyDescent="0.2">
+      <c r="A22" s="23">
+        <v>2006</v>
+      </c>
+      <c r="B22" s="28">
+        <v>28.92</v>
+      </c>
+      <c r="G22">
         <f t="shared" si="8"/>
-        <v>8.376448863636364E-2</v>
-      </c>
-      <c r="AF7">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>1.878816</v>
+      </c>
+      <c r="I22">
+        <v>0.92756989999999995</v>
+      </c>
+      <c r="J22">
+        <v>0.47514529999999999</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="20"/>
+        <v>1.4263914</v>
+      </c>
+      <c r="L22">
+        <v>82315</v>
+      </c>
+      <c r="O22">
+        <v>39766</v>
+      </c>
+      <c r="P22" s="25">
+        <v>38971262</v>
+      </c>
+      <c r="Q22" s="25">
+        <v>3353117</v>
+      </c>
+      <c r="T22">
+        <v>216580</v>
+      </c>
+      <c r="U22">
+        <v>220637</v>
+      </c>
+      <c r="V22" s="25">
+        <v>24469</v>
+      </c>
+      <c r="W22">
+        <f xml:space="preserve"> U22 + V22</f>
+        <v>245106</v>
+      </c>
+      <c r="X22">
+        <v>1133153</v>
+      </c>
+      <c r="Y22" s="25">
+        <v>142912</v>
+      </c>
+      <c r="Z22">
+        <f t="shared" si="5"/>
+        <v>1276065</v>
+      </c>
+      <c r="AA22">
+        <v>25363</v>
+      </c>
+      <c r="AB22">
+        <v>25498</v>
+      </c>
+      <c r="AC22" s="25">
+        <v>3716</v>
+      </c>
+      <c r="AD22">
+        <f t="shared" si="6"/>
+        <v>29214</v>
+      </c>
+      <c r="AF22">
         <f t="shared" si="9"/>
-        <v>7.8221326580667397E-2</v>
-      </c>
-      <c r="AG7">
+        <v>0</v>
+      </c>
+      <c r="AG22">
         <f t="shared" si="10"/>
-        <v>112.80252266456445</v>
-      </c>
-      <c r="AH7">
+        <v>82315000</v>
+      </c>
+      <c r="AH22">
+        <f t="shared" si="11"/>
+        <v>2.0699844087914299</v>
+      </c>
+      <c r="AI22">
+        <f t="shared" si="12"/>
+        <v>0.48309542610702788</v>
+      </c>
+      <c r="AJ22">
+        <f t="shared" si="13"/>
+        <v>0.98001463561836744</v>
+      </c>
+      <c r="AK22">
+        <f t="shared" si="14"/>
+        <v>5.6615307967188746E-3</v>
+      </c>
+      <c r="AL22">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AJ7">
+        <v>115.56538567873929</v>
+      </c>
+      <c r="AM22">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AO22">
+        <f t="shared" si="16"/>
+        <v>0.47344058798517891</v>
+      </c>
+      <c r="AP22">
+        <f t="shared" si="17"/>
+        <v>5.6615307967188746E-3</v>
+      </c>
+      <c r="AQ22">
+        <f t="shared" si="2"/>
+        <v>5.1358249069738982</v>
+      </c>
+      <c r="AR22">
+        <f t="shared" si="3"/>
+        <v>22.50181573009117</v>
+      </c>
+      <c r="AS22">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AU22">
+        <f t="shared" si="19"/>
+        <v>2.6803984692947824E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:47" ht="16" x14ac:dyDescent="0.2">
+      <c r="A23" s="23">
+        <v>2007</v>
+      </c>
+      <c r="B23" s="28">
+        <v>27.352</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>2.144107</v>
+      </c>
+      <c r="I23">
+        <v>1.0743507000000001</v>
+      </c>
+      <c r="J23">
+        <v>0.46673189999999998</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="20"/>
+        <v>1.5364882</v>
+      </c>
+      <c r="L23">
+        <v>82218</v>
+      </c>
+      <c r="O23">
+        <v>39722</v>
+      </c>
+      <c r="P23" s="25">
+        <v>39132222</v>
+      </c>
+      <c r="Q23" s="25">
+        <v>3375171</v>
+      </c>
+      <c r="T23">
+        <v>157198</v>
+      </c>
+      <c r="U23">
+        <v>185315</v>
+      </c>
+      <c r="V23" s="25">
+        <v>21503</v>
+      </c>
+      <c r="W23">
+        <f t="shared" si="4"/>
+        <v>206818</v>
+      </c>
+      <c r="X23">
+        <v>945827</v>
+      </c>
+      <c r="Y23" s="25">
+        <v>125747</v>
+      </c>
+      <c r="Z23">
+        <f t="shared" si="5"/>
+        <v>1071574</v>
+      </c>
+      <c r="AA23">
+        <v>17940</v>
+      </c>
+      <c r="AB23">
+        <v>21657</v>
+      </c>
+      <c r="AC23" s="25">
+        <v>3308</v>
+      </c>
+      <c r="AD23">
+        <f t="shared" si="6"/>
+        <v>24965</v>
+      </c>
+      <c r="AF23">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AG23">
+        <f t="shared" si="10"/>
+        <v>82218000</v>
+      </c>
+      <c r="AH23">
         <f t="shared" si="11"/>
-        <v>3.9295843076438443E-2</v>
-      </c>
-      <c r="AK7">
+        <v>2.0698353557222697</v>
+      </c>
+      <c r="AI23">
         <f t="shared" si="12"/>
-        <v>7.8221326580667397E-2</v>
-      </c>
-      <c r="AL7">
+        <v>0.48313021479481377</v>
+      </c>
+      <c r="AJ23">
         <f t="shared" si="13"/>
-        <v>5.1089909341742219</v>
-      </c>
-      <c r="AM7">
+        <v>0.98515235889431552</v>
+      </c>
+      <c r="AK23">
         <f t="shared" si="14"/>
-        <v>22.079217622020892</v>
-      </c>
-      <c r="AN7">
+        <v>4.7356114866158126E-3</v>
+      </c>
+      <c r="AL23">
+        <f t="shared" si="1"/>
+        <v>116.86587702020883</v>
+      </c>
+      <c r="AM23">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="AP7">
+      <c r="AO23">
+        <f t="shared" si="16"/>
+        <v>0.47595687075822812</v>
+      </c>
+      <c r="AP23">
+        <f t="shared" si="17"/>
+        <v>4.7356114866158126E-3</v>
+      </c>
+      <c r="AQ23">
         <f t="shared" si="2"/>
-        <v>3.0737729745447498E-3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:42" ht="16" x14ac:dyDescent="0.2">
-      <c r="A8" s="23">
-        <v>2003</v>
-      </c>
-      <c r="G8">
+        <v>5.1038879745298544</v>
+      </c>
+      <c r="AR23">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>1.8030889999999999</v>
-      </c>
-      <c r="I8">
-        <v>0.61658749999999996</v>
-      </c>
-      <c r="J8">
-        <v>0.5016777</v>
-      </c>
-      <c r="K8">
-        <f>H8-I8+J8</f>
-        <v>1.6881792</v>
-      </c>
-      <c r="L8">
-        <v>82532</v>
-      </c>
-      <c r="O8">
-        <v>38944</v>
-      </c>
-      <c r="P8">
-        <v>3271962</v>
-      </c>
-      <c r="S8">
-        <v>263317</v>
-      </c>
-      <c r="T8">
-        <v>236088</v>
-      </c>
-      <c r="U8">
-        <v>1222172</v>
-      </c>
-      <c r="V8">
-        <v>31048</v>
-      </c>
-      <c r="W8">
-        <v>27045</v>
-      </c>
-      <c r="AA8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AB8">
+        <v>22.897422044411929</v>
+      </c>
+      <c r="AS23">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AU23">
+        <f t="shared" si="19"/>
+        <v>2.2539468242963826E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:47" ht="16" x14ac:dyDescent="0.2">
+      <c r="A24" s="23">
+        <v>2008</v>
+      </c>
+      <c r="B24" s="28">
+        <v>27.591000000000001</v>
+      </c>
+      <c r="F24">
+        <v>23.2</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="8"/>
+        <v>6.4011120000000004</v>
+      </c>
+      <c r="H24">
+        <v>2.192218</v>
+      </c>
+      <c r="I24">
+        <v>1.0180718</v>
+      </c>
+      <c r="J24">
+        <v>0.56343469999999996</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="20"/>
+        <v>1.7375809</v>
+      </c>
+      <c r="L24">
+        <v>82002</v>
+      </c>
+      <c r="O24">
+        <v>40076</v>
+      </c>
+      <c r="P24" s="25">
+        <v>39267887</v>
+      </c>
+      <c r="Q24" s="25">
+        <v>3393400</v>
+      </c>
+      <c r="T24">
+        <v>148340</v>
+      </c>
+      <c r="U24">
+        <v>152237</v>
+      </c>
+      <c r="V24" s="25">
+        <v>20032</v>
+      </c>
+      <c r="W24">
+        <f t="shared" si="4"/>
+        <v>172269</v>
+      </c>
+      <c r="X24">
+        <v>762739</v>
+      </c>
+      <c r="Y24" s="25">
+        <v>109697</v>
+      </c>
+      <c r="Z24">
         <f t="shared" si="5"/>
-        <v>82532000</v>
-      </c>
-      <c r="AC8">
+        <v>872436</v>
+      </c>
+      <c r="AA24">
+        <v>17015</v>
+      </c>
+      <c r="AB24">
+        <v>17628</v>
+      </c>
+      <c r="AC24" s="25">
+        <v>3006</v>
+      </c>
+      <c r="AD24">
         <f t="shared" si="6"/>
-        <v>2.1192481511914543</v>
-      </c>
-      <c r="AD8">
-        <f t="shared" si="7"/>
-        <v>0.47186545824649834</v>
-      </c>
-      <c r="AE8">
-        <f t="shared" si="8"/>
-        <v>8.4017101479046841E-2</v>
-      </c>
-      <c r="AF8">
+        <v>20634</v>
+      </c>
+      <c r="AF24">
         <f t="shared" si="9"/>
-        <v>7.2154872214286112E-2</v>
-      </c>
-      <c r="AG8">
+        <v>6.4011120000000004</v>
+      </c>
+      <c r="AG24">
         <f t="shared" si="10"/>
-        <v>114.55474229948155</v>
-      </c>
-      <c r="AH8">
+        <v>82002000</v>
+      </c>
+      <c r="AH24">
+        <f t="shared" si="11"/>
+        <v>2.046162291645873</v>
+      </c>
+      <c r="AI24">
+        <f t="shared" si="12"/>
+        <v>0.48871978732226046</v>
+      </c>
+      <c r="AJ24">
+        <f t="shared" si="13"/>
+        <v>0.97983548757361016</v>
+      </c>
+      <c r="AK24">
+        <f t="shared" si="14"/>
+        <v>3.8768829094369146E-3</v>
+      </c>
+      <c r="AL24">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AJ8">
-        <f t="shared" si="11"/>
-        <v>3.9644768089952986E-2</v>
-      </c>
-      <c r="AK8">
-        <f t="shared" si="12"/>
-        <v>7.2154872214286112E-2</v>
-      </c>
-      <c r="AL8">
-        <f t="shared" si="13"/>
-        <v>5.1767645962522453</v>
-      </c>
-      <c r="AM8">
-        <f t="shared" si="14"/>
-        <v>22.128636558520405</v>
-      </c>
-      <c r="AN8">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="AP8">
-        <f t="shared" si="2"/>
-        <v>2.8605631754955656E-3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:42" ht="16" x14ac:dyDescent="0.2">
-      <c r="A9" s="23">
-        <v>2004</v>
-      </c>
-      <c r="G9">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>0.77823339999999996</v>
-      </c>
-      <c r="J9">
-        <v>0.53616379999999997</v>
-      </c>
-      <c r="L9">
-        <v>82501</v>
-      </c>
-      <c r="O9">
-        <v>39122</v>
-      </c>
-      <c r="P9">
-        <v>3301278</v>
-      </c>
-      <c r="S9">
-        <v>236378</v>
-      </c>
-      <c r="T9">
-        <v>247795</v>
-      </c>
-      <c r="U9">
-        <v>1294358</v>
-      </c>
-      <c r="V9">
-        <v>27636</v>
-      </c>
-      <c r="W9">
-        <v>28784</v>
-      </c>
-      <c r="AA9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AB9">
-        <f t="shared" si="5"/>
-        <v>82501000</v>
-      </c>
-      <c r="AC9">
-        <f t="shared" si="6"/>
-        <v>2.1088134553448188</v>
-      </c>
-      <c r="AD9">
-        <f t="shared" si="7"/>
-        <v>0.47420031272348212</v>
-      </c>
-      <c r="AE9">
-        <f t="shared" si="8"/>
-        <v>8.4384182812739641E-2</v>
-      </c>
-      <c r="AF9">
-        <f xml:space="preserve"> T9 / P9</f>
-        <v>7.506032512257374E-2</v>
-      </c>
-      <c r="AG9">
-        <f t="shared" si="10"/>
-        <v>116.16053592687504</v>
-      </c>
-      <c r="AH9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AJ9">
-        <f t="shared" si="11"/>
-        <v>4.001500587871662E-2</v>
-      </c>
-      <c r="AK9">
-        <f t="shared" si="12"/>
-        <v>7.506032512257374E-2</v>
-      </c>
-      <c r="AL9">
-        <f t="shared" si="13"/>
-        <v>5.223503299098045</v>
-      </c>
-      <c r="AM9">
-        <f t="shared" si="14"/>
-        <v>22.23805160550636</v>
-      </c>
-      <c r="AN9">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="AP9">
-        <f t="shared" si="2"/>
-        <v>3.0035393510381694E-3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:42" ht="16" x14ac:dyDescent="0.2">
-      <c r="A10" s="23">
-        <v>2005</v>
-      </c>
-      <c r="B10">
-        <v>27.042000000000002</v>
-      </c>
-      <c r="G10">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>1.832962</v>
-      </c>
-      <c r="I10">
-        <v>0.91016900000000001</v>
-      </c>
-      <c r="J10">
-        <v>0.37663010000000002</v>
-      </c>
-      <c r="K10">
-        <f t="shared" ref="K10:K27" si="16">H10-I10+J10</f>
-        <v>1.2994231000000001</v>
-      </c>
-      <c r="L10">
-        <v>82438</v>
-      </c>
-      <c r="O10">
-        <v>39178</v>
-      </c>
-      <c r="P10">
-        <v>3326849</v>
-      </c>
-      <c r="S10">
-        <v>211706</v>
-      </c>
-      <c r="T10">
-        <v>213766</v>
-      </c>
-      <c r="U10">
-        <v>1117255</v>
-      </c>
-      <c r="V10">
-        <v>24703</v>
-      </c>
-      <c r="W10">
-        <v>24983</v>
-      </c>
-      <c r="AA10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AB10">
-        <f t="shared" si="5"/>
-        <v>82438000</v>
-      </c>
-      <c r="AC10">
-        <f t="shared" si="6"/>
-        <v>2.1041911276736944</v>
-      </c>
-      <c r="AD10">
-        <f t="shared" si="7"/>
-        <v>0.4752420000485213</v>
-      </c>
-      <c r="AE10">
-        <f t="shared" si="8"/>
-        <v>8.4916254020113324E-2</v>
-      </c>
-      <c r="AF10">
-        <f t="shared" si="9"/>
-        <v>6.4254794852426425E-2</v>
-      </c>
-      <c r="AG10">
-        <f t="shared" si="10"/>
-        <v>116.87078394131902</v>
-      </c>
-      <c r="AH10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AJ10">
-        <f t="shared" si="11"/>
-        <v>4.0355770397146946E-2</v>
-      </c>
-      <c r="AK10">
-        <f t="shared" si="12"/>
-        <v>6.4254794852426425E-2</v>
-      </c>
-      <c r="AL10">
-        <f t="shared" si="13"/>
-        <v>5.2265327507648554</v>
-      </c>
-      <c r="AM10">
-        <f t="shared" si="14"/>
-        <v>22.361054548872012</v>
-      </c>
-      <c r="AN10">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="AP10">
-        <f t="shared" si="2"/>
-        <v>2.5930517479803004E-3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:42" ht="16" x14ac:dyDescent="0.2">
-      <c r="A11" s="23">
-        <v>2006</v>
-      </c>
-      <c r="B11">
-        <v>28.92</v>
-      </c>
-      <c r="G11">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>1.878816</v>
-      </c>
-      <c r="I11">
-        <v>0.92756989999999995</v>
-      </c>
-      <c r="J11">
-        <v>0.47514529999999999</v>
-      </c>
-      <c r="K11">
-        <f t="shared" si="16"/>
-        <v>1.4263914</v>
-      </c>
-      <c r="L11">
-        <v>82315</v>
-      </c>
-      <c r="O11">
-        <v>39766</v>
-      </c>
-      <c r="P11">
-        <v>3353117</v>
-      </c>
-      <c r="S11">
-        <v>216580</v>
-      </c>
-      <c r="T11">
-        <v>220637</v>
-      </c>
-      <c r="U11">
-        <v>1133153</v>
-      </c>
-      <c r="V11">
-        <v>25363</v>
-      </c>
-      <c r="W11">
-        <v>25498</v>
-      </c>
-      <c r="AA11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AB11">
-        <f t="shared" si="5"/>
-        <v>82315000</v>
-      </c>
-      <c r="AC11">
-        <f t="shared" si="6"/>
-        <v>2.0699844087914299</v>
-      </c>
-      <c r="AD11">
-        <f t="shared" si="7"/>
-        <v>0.48309542610702788</v>
-      </c>
-      <c r="AE11">
-        <f t="shared" si="8"/>
-        <v>8.4321204043655382E-2</v>
-      </c>
-      <c r="AF11">
-        <f t="shared" si="9"/>
-        <v>6.5800567054474984E-2</v>
-      </c>
-      <c r="AG11">
-        <f t="shared" si="10"/>
-        <v>115.56538567873929</v>
-      </c>
-      <c r="AH11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AJ11">
-        <f t="shared" si="11"/>
-        <v>4.0735187997327338E-2</v>
-      </c>
-      <c r="AK11">
-        <f t="shared" si="12"/>
-        <v>6.5800567054474984E-2</v>
-      </c>
-      <c r="AL11">
-        <f t="shared" si="13"/>
-        <v>5.1358249069738982</v>
-      </c>
-      <c r="AM11">
-        <f t="shared" si="14"/>
-        <v>22.50181573009117</v>
-      </c>
-      <c r="AN11">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="AP11">
-        <f t="shared" si="2"/>
-        <v>2.6803984692947824E-3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:42" ht="16" x14ac:dyDescent="0.2">
-      <c r="A12" s="23">
-        <v>2007</v>
-      </c>
-      <c r="B12">
-        <v>27.352</v>
-      </c>
-      <c r="G12">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>2.144107</v>
-      </c>
-      <c r="I12">
-        <v>1.0743507000000001</v>
-      </c>
-      <c r="J12">
-        <v>0.46673189999999998</v>
-      </c>
-      <c r="K12">
-        <f t="shared" si="16"/>
-        <v>1.5364882</v>
-      </c>
-      <c r="L12">
-        <v>82218</v>
-      </c>
-      <c r="O12">
-        <v>39722</v>
-      </c>
-      <c r="P12">
-        <v>3375171</v>
-      </c>
-      <c r="S12">
-        <v>157198</v>
-      </c>
-      <c r="T12">
-        <v>185315</v>
-      </c>
-      <c r="U12">
-        <v>945827</v>
-      </c>
-      <c r="V12">
-        <v>17940</v>
-      </c>
-      <c r="W12">
-        <v>21657</v>
-      </c>
-      <c r="AA12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AB12">
-        <f t="shared" si="5"/>
-        <v>82218000</v>
-      </c>
-      <c r="AC12">
-        <f t="shared" si="6"/>
-        <v>2.0698353557222697</v>
-      </c>
-      <c r="AD12">
-        <f t="shared" si="7"/>
-        <v>0.48313021479481377</v>
-      </c>
-      <c r="AE12">
-        <f t="shared" si="8"/>
-        <v>8.4969815215749464E-2</v>
-      </c>
-      <c r="AF12">
-        <f t="shared" si="9"/>
-        <v>5.490536627625682E-2</v>
-      </c>
-      <c r="AG12">
-        <f t="shared" si="10"/>
-        <v>116.86587702020883</v>
-      </c>
-      <c r="AH12">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AJ12">
-        <f t="shared" si="11"/>
-        <v>4.105148507626067E-2</v>
-      </c>
-      <c r="AK12">
-        <f t="shared" si="12"/>
-        <v>5.490536627625682E-2</v>
-      </c>
-      <c r="AL12">
-        <f t="shared" si="13"/>
-        <v>5.1038879745298544</v>
-      </c>
-      <c r="AM12">
-        <f t="shared" si="14"/>
-        <v>22.897422044411929</v>
-      </c>
-      <c r="AN12">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="AP12">
-        <f t="shared" si="2"/>
-        <v>2.2539468242963826E-3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:42" ht="16" x14ac:dyDescent="0.2">
-      <c r="A13" s="23">
-        <v>2008</v>
-      </c>
-      <c r="B13">
-        <v>27.591000000000001</v>
-      </c>
-      <c r="F13">
-        <v>23.2</v>
-      </c>
-      <c r="G13">
-        <f t="shared" si="3"/>
-        <v>6.4011120000000004</v>
-      </c>
-      <c r="H13">
-        <v>2.192218</v>
-      </c>
-      <c r="I13">
-        <v>1.0180718</v>
-      </c>
-      <c r="J13">
-        <v>0.56343469999999996</v>
-      </c>
-      <c r="K13">
-        <f t="shared" si="16"/>
-        <v>1.7375809</v>
-      </c>
-      <c r="L13">
-        <v>82002</v>
-      </c>
-      <c r="O13">
-        <v>40076</v>
-      </c>
-      <c r="P13">
-        <v>3393400</v>
-      </c>
-      <c r="S13">
-        <v>148340</v>
-      </c>
-      <c r="T13">
-        <v>152237</v>
-      </c>
-      <c r="U13">
-        <v>762739</v>
-      </c>
-      <c r="V13">
-        <v>17015</v>
-      </c>
-      <c r="W13">
-        <v>17628</v>
-      </c>
-      <c r="AA13">
-        <f t="shared" si="0"/>
-        <v>6.4011120000000004</v>
-      </c>
-      <c r="AB13">
-        <f t="shared" si="5"/>
-        <v>82002000</v>
-      </c>
-      <c r="AC13">
-        <f t="shared" si="6"/>
-        <v>2.046162291645873</v>
-      </c>
-      <c r="AD13">
-        <f t="shared" si="7"/>
-        <v>0.48871978732226046</v>
-      </c>
-      <c r="AE13">
-        <f t="shared" si="8"/>
-        <v>8.467411917357022E-2</v>
-      </c>
-      <c r="AF13">
-        <f t="shared" si="9"/>
-        <v>4.4862674603642363E-2</v>
-      </c>
-      <c r="AG13">
-        <f t="shared" si="10"/>
         <v>115.79313833036647</v>
       </c>
-      <c r="AH13">
-        <f t="shared" si="1"/>
-        <v>0.36312185159972771</v>
-      </c>
-      <c r="AJ13">
-        <f t="shared" si="11"/>
-        <v>4.1381917514206973E-2</v>
-      </c>
-      <c r="AK13">
-        <f t="shared" si="12"/>
-        <v>4.4862674603642363E-2</v>
-      </c>
-      <c r="AL13">
-        <f t="shared" si="13"/>
-        <v>5.0102077681509751</v>
-      </c>
-      <c r="AM13">
-        <f t="shared" si="14"/>
-        <v>23.111444412833222</v>
-      </c>
-      <c r="AN13">
+      <c r="AM24">
         <f t="shared" si="15"/>
         <v>0.36312185159972771</v>
       </c>
-      <c r="AP13">
+      <c r="AO24">
+        <f t="shared" si="16"/>
+        <v>0.47886499109777808</v>
+      </c>
+      <c r="AP24">
+        <f t="shared" si="17"/>
+        <v>3.8768829094369146E-3</v>
+      </c>
+      <c r="AQ24">
         <f t="shared" si="2"/>
+        <v>5.0102077681509751</v>
+      </c>
+      <c r="AR24">
+        <f t="shared" si="3"/>
+        <v>23.111444412833222</v>
+      </c>
+      <c r="AS24">
+        <f t="shared" si="18"/>
+        <v>0.36312185159972771</v>
+      </c>
+      <c r="AU24">
+        <f t="shared" si="19"/>
         <v>1.8565034999146362E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:42" ht="16" x14ac:dyDescent="0.2">
-      <c r="A14" s="23">
+    <row r="25" spans="1:47" ht="16" x14ac:dyDescent="0.2">
+      <c r="A25" s="23">
         <v>2009</v>
       </c>
-      <c r="B14">
+      <c r="B25" s="28">
         <v>25.256</v>
       </c>
-      <c r="D14">
-        <f xml:space="preserve"> (B14 - B13) / B13</f>
+      <c r="D25">
+        <f xml:space="preserve"> (B25 - B24) / B24</f>
         <v>-8.4629045703309078E-2</v>
       </c>
-      <c r="F14">
+      <c r="F25">
         <v>22.5</v>
       </c>
-      <c r="G14">
-        <f t="shared" si="3"/>
+      <c r="G25">
+        <f t="shared" si="8"/>
         <v>5.6825999999999999</v>
       </c>
-      <c r="I14">
+      <c r="I25">
         <v>0.83811469999999999</v>
       </c>
-      <c r="J14">
+      <c r="J25">
         <v>0.63623529999999995</v>
       </c>
-      <c r="L14">
+      <c r="L25">
         <v>81802</v>
       </c>
-      <c r="O14">
+      <c r="O25">
         <v>40188</v>
       </c>
-      <c r="P14">
+      <c r="P25" s="25">
+        <v>39390468</v>
+      </c>
+      <c r="Q25" s="25">
         <v>3409819</v>
       </c>
-      <c r="S14">
+      <c r="T25">
         <v>153736</v>
       </c>
-      <c r="T14">
+      <c r="U25">
         <v>136518</v>
       </c>
-      <c r="U14">
+      <c r="V25" s="25">
+        <v>18750</v>
+      </c>
+      <c r="W25">
+        <f t="shared" si="4"/>
+        <v>155268</v>
+      </c>
+      <c r="X25">
         <v>676403</v>
       </c>
-      <c r="V14">
+      <c r="Y25" s="25">
+        <v>99673</v>
+      </c>
+      <c r="Z25">
+        <f t="shared" si="5"/>
+        <v>776076</v>
+      </c>
+      <c r="AA25">
         <v>17608</v>
       </c>
-      <c r="W14">
+      <c r="AB25">
         <v>15781</v>
       </c>
-      <c r="AA14">
-        <f t="shared" si="0"/>
+      <c r="AC25" s="25">
+        <v>2744</v>
+      </c>
+      <c r="AD25">
+        <f t="shared" si="6"/>
+        <v>18525</v>
+      </c>
+      <c r="AF25">
+        <f t="shared" si="9"/>
         <v>5.6825999999999999</v>
       </c>
-      <c r="AB14">
-        <f t="shared" si="5"/>
+      <c r="AG25">
+        <f t="shared" si="10"/>
         <v>81802000</v>
       </c>
-      <c r="AC14">
-        <f t="shared" si="6"/>
+      <c r="AH25">
+        <f t="shared" si="11"/>
         <v>2.0354832288245248</v>
       </c>
-      <c r="AD14">
-        <f t="shared" si="7"/>
+      <c r="AI25">
+        <f t="shared" si="12"/>
         <v>0.49128383169115669</v>
       </c>
-      <c r="AE14">
-        <f t="shared" si="8"/>
-        <v>8.4846695531004282E-2</v>
-      </c>
-      <c r="AF14">
-        <f t="shared" si="9"/>
-        <v>4.0036729222284233E-2</v>
-      </c>
-      <c r="AG14">
-        <f t="shared" si="10"/>
+      <c r="AJ25">
+        <f t="shared" si="13"/>
+        <v>0.98015497163332344</v>
+      </c>
+      <c r="AK25">
+        <f t="shared" si="14"/>
+        <v>3.4657623260530949E-3</v>
+      </c>
+      <c r="AL25">
+        <f t="shared" si="1"/>
         <v>115.59647812010138</v>
       </c>
-      <c r="AH14">
-        <f t="shared" si="1"/>
-        <v>0.36009124897028072</v>
-      </c>
-      <c r="AJ14">
-        <f t="shared" si="11"/>
-        <v>4.1683809686804726E-2</v>
-      </c>
-      <c r="AK14">
-        <f t="shared" si="12"/>
-        <v>4.0036729222284233E-2</v>
-      </c>
-      <c r="AL14">
-        <f t="shared" si="13"/>
-        <v>4.9546799689418242</v>
-      </c>
-      <c r="AM14">
-        <f t="shared" si="14"/>
-        <v>23.330765830429492</v>
-      </c>
-      <c r="AN14">
+      <c r="AM25">
         <f t="shared" si="15"/>
         <v>0.36009124897028072</v>
       </c>
-      <c r="AP14">
+      <c r="AO25">
+        <f t="shared" si="16"/>
+        <v>0.48153429011515608</v>
+      </c>
+      <c r="AP25">
+        <f t="shared" si="17"/>
+        <v>3.4657623260530949E-3</v>
+      </c>
+      <c r="AQ25">
         <f t="shared" si="2"/>
+        <v>4.9546799689418242</v>
+      </c>
+      <c r="AR25">
+        <f t="shared" si="3"/>
+        <v>23.330765830429492</v>
+      </c>
+      <c r="AS25">
+        <f t="shared" si="18"/>
+        <v>0.36009124897028072</v>
+      </c>
+      <c r="AU25">
+        <f t="shared" si="19"/>
         <v>1.6688834013838293E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:42" ht="16" x14ac:dyDescent="0.2">
-      <c r="A15" s="23">
+    <row r="26" spans="1:47" ht="16" x14ac:dyDescent="0.2">
+      <c r="A26" s="23">
         <v>2010</v>
       </c>
-      <c r="B15">
+      <c r="B26" s="28">
         <v>24.690999999999999</v>
       </c>
-      <c r="D15">
-        <f t="shared" ref="D15:D27" si="17" xml:space="preserve"> (B15 - B14) / B14</f>
+      <c r="D26">
+        <f t="shared" ref="D26:D38" si="21" xml:space="preserve"> (B26 - B25) / B25</f>
         <v>-2.2370921761165716E-2</v>
       </c>
-      <c r="F15">
+      <c r="F26">
         <v>25.1</v>
       </c>
-      <c r="G15">
-        <f t="shared" si="3"/>
+      <c r="G26">
+        <f t="shared" si="8"/>
         <v>6.1974410000000004</v>
       </c>
-      <c r="I15">
+      <c r="I26">
         <v>0.81945900000000005</v>
       </c>
-      <c r="J15">
+      <c r="J26">
         <v>0.563025</v>
       </c>
-      <c r="L15">
+      <c r="L26">
         <v>81752</v>
       </c>
-      <c r="O15">
+      <c r="O26">
         <v>40301</v>
       </c>
-      <c r="P15">
+      <c r="P26" s="25">
+        <v>39106700</v>
+      </c>
+      <c r="Q26" s="25">
         <v>3557922</v>
       </c>
-      <c r="S15">
+      <c r="T26">
         <v>164611</v>
       </c>
-      <c r="T15">
+      <c r="U26">
         <v>140096</v>
       </c>
-      <c r="U15">
+      <c r="V26" s="25">
+        <v>17010</v>
+      </c>
+      <c r="W26">
+        <f t="shared" si="4"/>
+        <v>157106</v>
+      </c>
+      <c r="X26">
         <v>687455</v>
       </c>
-      <c r="V15">
+      <c r="Y26" s="25">
+        <v>93772</v>
+      </c>
+      <c r="Z26">
+        <f t="shared" si="5"/>
+        <v>781227</v>
+      </c>
+      <c r="AA26">
         <v>18890</v>
       </c>
-      <c r="W15">
+      <c r="AB26">
         <v>16165</v>
       </c>
-      <c r="AA15">
-        <f t="shared" si="0"/>
+      <c r="AC26" s="25">
+        <v>2593</v>
+      </c>
+      <c r="AD26">
+        <f t="shared" si="6"/>
+        <v>18758</v>
+      </c>
+      <c r="AF26">
+        <f t="shared" si="9"/>
         <v>6.1974410000000004</v>
       </c>
-      <c r="AB15">
-        <f t="shared" si="5"/>
+      <c r="AG26">
+        <f t="shared" si="10"/>
         <v>81752000</v>
       </c>
-      <c r="AC15">
-        <f t="shared" si="6"/>
+      <c r="AH26">
+        <f t="shared" si="11"/>
         <v>2.0285352720776157</v>
       </c>
-      <c r="AD15">
-        <f t="shared" si="7"/>
+      <c r="AI26">
+        <f t="shared" si="12"/>
         <v>0.492966532928858</v>
       </c>
-      <c r="AE15">
-        <f t="shared" si="8"/>
-        <v>8.8283715044291708E-2</v>
-      </c>
-      <c r="AF15">
-        <f t="shared" si="9"/>
-        <v>3.9375792948805513E-2</v>
-      </c>
-      <c r="AG15">
-        <f t="shared" si="10"/>
+      <c r="AJ26">
+        <f t="shared" si="13"/>
+        <v>0.9703654996153942</v>
+      </c>
+      <c r="AK26">
+        <f t="shared" si="14"/>
+        <v>3.5824040381827156E-3</v>
+      </c>
+      <c r="AL26">
+        <f t="shared" si="1"/>
         <v>115.38516445865692</v>
       </c>
-      <c r="AH15">
-        <f t="shared" si="1"/>
-        <v>0.38338639034952054</v>
-      </c>
-      <c r="AJ15">
-        <f t="shared" si="11"/>
-        <v>4.3520916919463741E-2</v>
-      </c>
-      <c r="AK15">
-        <f t="shared" si="12"/>
-        <v>3.9375792948805513E-2</v>
-      </c>
-      <c r="AL15">
-        <f t="shared" si="13"/>
-        <v>4.9070280379168567</v>
-      </c>
-      <c r="AM15">
-        <f t="shared" si="14"/>
-        <v>23.514266388345419</v>
-      </c>
-      <c r="AN15">
+      <c r="AM26">
         <f t="shared" si="15"/>
         <v>0.38338639034952054</v>
       </c>
-      <c r="AP15">
+      <c r="AO26">
+        <f t="shared" si="16"/>
+        <v>0.47835771601917998</v>
+      </c>
+      <c r="AP26">
+        <f t="shared" si="17"/>
+        <v>3.5824040381827156E-3</v>
+      </c>
+      <c r="AQ26">
         <f t="shared" si="2"/>
+        <v>4.9070280379168567</v>
+      </c>
+      <c r="AR26">
+        <f t="shared" si="3"/>
+        <v>23.514266388345419</v>
+      </c>
+      <c r="AS26">
+        <f t="shared" si="18"/>
+        <v>0.38338639034952054</v>
+      </c>
+      <c r="AU26">
+        <f t="shared" si="19"/>
         <v>1.7136706135629709E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:42" ht="16" x14ac:dyDescent="0.2">
-      <c r="A16" s="23">
+    <row r="27" spans="1:47" ht="16" x14ac:dyDescent="0.2">
+      <c r="A27" s="23">
         <v>2011</v>
       </c>
-      <c r="B16">
+      <c r="B27" s="28">
         <v>28.071999999999999</v>
       </c>
-      <c r="D16">
-        <f t="shared" si="17"/>
+      <c r="D27">
+        <f t="shared" si="21"/>
         <v>0.13693248552104006</v>
       </c>
-      <c r="F16">
+      <c r="F27">
         <v>27.1</v>
       </c>
-      <c r="G16">
-        <f t="shared" si="3"/>
+      <c r="G27">
+        <f t="shared" si="8"/>
         <v>7.6075120000000007</v>
       </c>
-      <c r="I16">
+      <c r="I27">
         <v>0.77140730000000002</v>
       </c>
-      <c r="J16">
+      <c r="J27">
         <v>0.74790970000000001</v>
       </c>
-      <c r="L16">
+      <c r="L27">
         <v>80328</v>
       </c>
-      <c r="O16">
+      <c r="O27">
         <v>39509</v>
       </c>
-      <c r="P16">
+      <c r="P27" s="25">
+        <v>39255020</v>
+      </c>
+      <c r="Q27" s="25">
         <v>3576539</v>
       </c>
-      <c r="S16">
+      <c r="T27">
         <v>200061</v>
       </c>
-      <c r="T16">
+      <c r="U27">
         <v>161186</v>
       </c>
-      <c r="U16">
+      <c r="V27" s="25">
+        <v>18864</v>
+      </c>
+      <c r="W27">
+        <f t="shared" si="4"/>
+        <v>180050</v>
+      </c>
+      <c r="X27">
         <v>780174</v>
       </c>
-      <c r="V16">
+      <c r="Y27" s="25">
+        <v>98940</v>
+      </c>
+      <c r="Z27">
+        <f t="shared" si="5"/>
+        <v>879114</v>
+      </c>
+      <c r="AA27">
         <v>22958</v>
       </c>
-      <c r="W16">
+      <c r="AB27">
         <v>18636</v>
       </c>
-      <c r="AA16">
-        <f t="shared" si="0"/>
+      <c r="AC27" s="25">
+        <v>2771</v>
+      </c>
+      <c r="AD27">
+        <f t="shared" si="6"/>
+        <v>21407</v>
+      </c>
+      <c r="AF27">
+        <f t="shared" si="9"/>
         <v>7.6075120000000007</v>
       </c>
-      <c r="AB16">
-        <f t="shared" si="5"/>
+      <c r="AG27">
+        <f t="shared" si="10"/>
         <v>80328000</v>
       </c>
-      <c r="AC16">
-        <f t="shared" si="6"/>
+      <c r="AH27">
+        <f t="shared" si="11"/>
         <v>2.0331570022020298</v>
       </c>
-      <c r="AD16">
-        <f t="shared" si="7"/>
+      <c r="AI27">
+        <f t="shared" si="12"/>
         <v>0.49184593168011154</v>
       </c>
-      <c r="AE16">
-        <f t="shared" si="8"/>
-        <v>9.052466526614189E-2</v>
-      </c>
-      <c r="AF16">
-        <f t="shared" si="9"/>
-        <v>4.5067591881425034E-2</v>
-      </c>
-      <c r="AG16">
-        <f t="shared" si="10"/>
+      <c r="AJ27">
+        <f t="shared" si="13"/>
+        <v>0.99357159128299877</v>
+      </c>
+      <c r="AK27">
+        <f t="shared" si="14"/>
+        <v>4.1061245160491575E-3</v>
+      </c>
+      <c r="AL27">
+        <f t="shared" si="1"/>
         <v>115.61798171057039</v>
       </c>
-      <c r="AH16">
-        <f t="shared" si="1"/>
-        <v>0.40821592616441299</v>
-      </c>
-      <c r="AJ16">
-        <f t="shared" si="11"/>
-        <v>4.452418832785579E-2</v>
-      </c>
-      <c r="AK16">
-        <f t="shared" si="12"/>
-        <v>4.5067591881425034E-2</v>
-      </c>
-      <c r="AL16">
-        <f t="shared" si="13"/>
-        <v>4.8402094474706239</v>
-      </c>
-      <c r="AM16">
-        <f t="shared" si="14"/>
-        <v>23.886979058517714</v>
-      </c>
-      <c r="AN16">
+      <c r="AM27">
         <f t="shared" si="15"/>
         <v>0.40821592616441299</v>
       </c>
-      <c r="AP16">
+      <c r="AO27">
+        <f t="shared" si="16"/>
+        <v>0.48868414500547752</v>
+      </c>
+      <c r="AP27">
+        <f t="shared" si="17"/>
+        <v>4.1061245160491575E-3</v>
+      </c>
+      <c r="AQ27">
         <f t="shared" si="2"/>
+        <v>4.8402094474706239</v>
+      </c>
+      <c r="AR27">
+        <f t="shared" si="3"/>
+        <v>23.886979058517714</v>
+      </c>
+      <c r="AS27">
+        <f t="shared" si="18"/>
+        <v>0.40821592616441299</v>
+      </c>
+      <c r="AU27">
+        <f t="shared" si="19"/>
         <v>2.0065979484115127E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:42" ht="16" x14ac:dyDescent="0.2">
-      <c r="A17" s="23">
+    <row r="28" spans="1:47" ht="16" x14ac:dyDescent="0.2">
+      <c r="A28" s="23">
         <v>2012</v>
       </c>
-      <c r="B17">
-        <v>26.77</v>
-      </c>
-      <c r="D17">
+      <c r="B28" s="28">
+        <v>26.768999999999998</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="21"/>
+        <v>-4.641635793673414E-2</v>
+      </c>
+      <c r="F28">
+        <v>27.7</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="8"/>
+        <v>7.4150129999999992</v>
+      </c>
+      <c r="H28">
+        <v>2.418377</v>
+      </c>
+      <c r="I28">
+        <v>0.77681829999999996</v>
+      </c>
+      <c r="J28">
+        <v>0.68686729999999996</v>
+      </c>
+      <c r="K28">
+        <f t="shared" si="20"/>
+        <v>2.3284259999999999</v>
+      </c>
+      <c r="L28">
+        <v>80524</v>
+      </c>
+      <c r="O28">
+        <v>39707</v>
+      </c>
+      <c r="P28" s="25">
+        <v>39426622</v>
+      </c>
+      <c r="Q28" s="25">
+        <v>3597668</v>
+      </c>
+      <c r="T28">
+        <v>212636</v>
+      </c>
+      <c r="U28">
+        <v>176617</v>
+      </c>
+      <c r="V28" s="25">
+        <v>19676</v>
+      </c>
+      <c r="W28">
+        <f t="shared" si="4"/>
+        <v>196293</v>
+      </c>
+      <c r="X28">
+        <v>832134</v>
+      </c>
+      <c r="Y28" s="25">
+        <v>95701</v>
+      </c>
+      <c r="Z28">
+        <f t="shared" si="5"/>
+        <v>927835</v>
+      </c>
+      <c r="AA28">
+        <v>23614</v>
+      </c>
+      <c r="AB28">
+        <v>20183</v>
+      </c>
+      <c r="AC28" s="25">
+        <v>2769</v>
+      </c>
+      <c r="AD28">
+        <f t="shared" si="6"/>
+        <v>22952</v>
+      </c>
+      <c r="AF28">
+        <f t="shared" si="9"/>
+        <v>7.4150129999999992</v>
+      </c>
+      <c r="AG28">
+        <f t="shared" si="10"/>
+        <v>80524000</v>
+      </c>
+      <c r="AH28">
+        <f t="shared" si="11"/>
+        <v>2.0279547686805852</v>
+      </c>
+      <c r="AI28">
+        <f t="shared" si="12"/>
+        <v>0.49310764492573644</v>
+      </c>
+      <c r="AJ28">
+        <f t="shared" si="13"/>
+        <v>0.99293882690709445</v>
+      </c>
+      <c r="AK28">
+        <f t="shared" si="14"/>
+        <v>4.479638149065877E-3</v>
+      </c>
+      <c r="AL28">
+        <f t="shared" si="1"/>
+        <v>114.27552274129897</v>
+      </c>
+      <c r="AM28">
+        <f t="shared" si="15"/>
+        <v>0.36738904028142494</v>
+      </c>
+      <c r="AO28">
+        <f t="shared" si="16"/>
+        <v>0.48962572649148078</v>
+      </c>
+      <c r="AP28">
         <f t="shared" si="17"/>
-        <v>-4.6380735252208594E-2</v>
-      </c>
-      <c r="F17">
-        <v>27.7</v>
-      </c>
-      <c r="G17">
+        <v>4.479638149065877E-3</v>
+      </c>
+      <c r="AQ28">
+        <f t="shared" si="2"/>
+        <v>4.7115170113862197</v>
+      </c>
+      <c r="AR28">
         <f t="shared" si="3"/>
-        <v>7.4152899999999997</v>
-      </c>
-      <c r="H17">
-        <v>2.418377</v>
-      </c>
-      <c r="I17">
-        <v>0.77681829999999996</v>
-      </c>
-      <c r="J17">
-        <v>0.68686729999999996</v>
-      </c>
-      <c r="K17">
-        <f t="shared" si="16"/>
-        <v>2.3284259999999999</v>
-      </c>
-      <c r="L17">
-        <v>80524</v>
-      </c>
-      <c r="O17">
-        <v>39707</v>
-      </c>
-      <c r="P17">
-        <v>3597668</v>
-      </c>
-      <c r="S17">
-        <v>212636</v>
-      </c>
-      <c r="T17">
-        <v>176617</v>
-      </c>
-      <c r="U17">
-        <v>832134</v>
-      </c>
-      <c r="V17">
-        <v>23614</v>
-      </c>
-      <c r="W17">
-        <v>20183</v>
-      </c>
-      <c r="AA17">
-        <f t="shared" si="0"/>
-        <v>7.4152899999999997</v>
-      </c>
-      <c r="AB17">
+        <v>24.254507086599034</v>
+      </c>
+      <c r="AS28">
+        <f t="shared" si="18"/>
+        <v>0.36738904028142494</v>
+      </c>
+      <c r="AU28">
+        <f t="shared" si="19"/>
+        <v>2.1933460831553325E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:47" ht="16" x14ac:dyDescent="0.2">
+      <c r="A29" s="23">
+        <v>2013</v>
+      </c>
+      <c r="B29" s="28">
+        <v>26.545000000000002</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="21"/>
+        <v>-8.3678882289213892E-3</v>
+      </c>
+      <c r="F29">
+        <v>29.2</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="8"/>
+        <v>7.7511400000000004</v>
+      </c>
+      <c r="H29">
+        <v>2.4743599999999999</v>
+      </c>
+      <c r="I29">
+        <v>0.72372749999999997</v>
+      </c>
+      <c r="J29">
+        <v>0.52368210000000004</v>
+      </c>
+      <c r="K29">
+        <f t="shared" si="20"/>
+        <v>2.2743146000000003</v>
+      </c>
+      <c r="L29">
+        <v>80767</v>
+      </c>
+      <c r="O29">
+        <v>39933</v>
+      </c>
+      <c r="P29" s="25">
+        <v>39612188</v>
+      </c>
+      <c r="Q29" s="25">
+        <v>3620039</v>
+      </c>
+      <c r="T29">
+        <v>237274</v>
+      </c>
+      <c r="U29">
+        <v>188397</v>
+      </c>
+      <c r="V29" s="25">
+        <v>22156</v>
+      </c>
+      <c r="W29">
+        <f t="shared" si="4"/>
+        <v>210553</v>
+      </c>
+      <c r="X29">
+        <v>864837</v>
+      </c>
+      <c r="Y29" s="25">
+        <v>103480</v>
+      </c>
+      <c r="Z29">
         <f t="shared" si="5"/>
-        <v>80524000</v>
-      </c>
-      <c r="AC17">
+        <v>968317</v>
+      </c>
+      <c r="AA29">
+        <v>25599</v>
+      </c>
+      <c r="AB29">
+        <v>21181</v>
+      </c>
+      <c r="AC29" s="25">
+        <v>2991</v>
+      </c>
+      <c r="AD29">
         <f t="shared" si="6"/>
-        <v>2.0279547686805852</v>
-      </c>
-      <c r="AD17">
-        <f t="shared" si="7"/>
-        <v>0.49310764492573644</v>
-      </c>
-      <c r="AE17">
-        <f t="shared" si="8"/>
-        <v>9.0605384441030543E-2</v>
-      </c>
-      <c r="AF17">
+        <v>24172</v>
+      </c>
+      <c r="AF29">
         <f t="shared" si="9"/>
-        <v>4.9092078535317878E-2</v>
-      </c>
-      <c r="AG17">
+        <v>7.7511400000000004</v>
+      </c>
+      <c r="AG29">
         <f t="shared" si="10"/>
-        <v>114.27552274129897</v>
-      </c>
-      <c r="AH17">
+        <v>80767000</v>
+      </c>
+      <c r="AH29">
+        <f t="shared" si="11"/>
+        <v>2.0225627926777352</v>
+      </c>
+      <c r="AI29">
+        <f t="shared" si="12"/>
+        <v>0.49442222689960008</v>
+      </c>
+      <c r="AJ29">
+        <f t="shared" si="13"/>
+        <v>0.99196624345779183</v>
+      </c>
+      <c r="AK29">
+        <f t="shared" si="14"/>
+        <v>4.7560361977480262E-3</v>
+      </c>
+      <c r="AL29">
         <f t="shared" si="1"/>
-        <v>0.36740276470296784</v>
-      </c>
-      <c r="AJ17">
-        <f t="shared" si="11"/>
-        <v>4.4678207739307536E-2</v>
-      </c>
-      <c r="AK17">
-        <f t="shared" si="12"/>
-        <v>4.9092078535317878E-2</v>
-      </c>
-      <c r="AL17">
-        <f t="shared" si="13"/>
-        <v>4.7115170113862197</v>
-      </c>
-      <c r="AM17">
-        <f t="shared" si="14"/>
-        <v>24.254507086599034</v>
-      </c>
-      <c r="AN17">
-        <f t="shared" si="15"/>
-        <v>0.36740276470296784</v>
-      </c>
-      <c r="AP17">
-        <f t="shared" si="2"/>
-        <v>2.1933460831553325E-3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:42" ht="16" x14ac:dyDescent="0.2">
-      <c r="A18" s="23">
-        <v>2013</v>
-      </c>
-      <c r="B18">
-        <v>26.545000000000002</v>
-      </c>
-      <c r="D18">
-        <f t="shared" si="17"/>
-        <v>-8.404930892790357E-3</v>
-      </c>
-      <c r="F18">
-        <v>29.2</v>
-      </c>
-      <c r="G18">
-        <f t="shared" si="3"/>
-        <v>7.7511400000000004</v>
-      </c>
-      <c r="H18">
-        <v>2.4743599999999999</v>
-      </c>
-      <c r="I18">
-        <v>0.72372749999999997</v>
-      </c>
-      <c r="J18">
-        <v>0.52368210000000004</v>
-      </c>
-      <c r="K18">
-        <f t="shared" si="16"/>
-        <v>2.2743146000000003</v>
-      </c>
-      <c r="L18">
-        <v>80767</v>
-      </c>
-      <c r="O18">
-        <v>39933</v>
-      </c>
-      <c r="P18">
-        <v>3620039</v>
-      </c>
-      <c r="S18">
-        <v>237274</v>
-      </c>
-      <c r="T18">
-        <v>188397</v>
-      </c>
-      <c r="U18">
-        <v>864837</v>
-      </c>
-      <c r="V18">
-        <v>25599</v>
-      </c>
-      <c r="W18">
-        <v>21181</v>
-      </c>
-      <c r="AA18">
-        <f t="shared" si="0"/>
-        <v>7.7511400000000004</v>
-      </c>
-      <c r="AB18">
-        <f t="shared" si="5"/>
-        <v>80767000</v>
-      </c>
-      <c r="AC18">
-        <f t="shared" si="6"/>
-        <v>2.0225627926777352</v>
-      </c>
-      <c r="AD18">
-        <f t="shared" si="7"/>
-        <v>0.49442222689960008</v>
-      </c>
-      <c r="AE18">
-        <f t="shared" si="8"/>
-        <v>9.0652818470938826E-2</v>
-      </c>
-      <c r="AF18">
-        <f t="shared" si="9"/>
-        <v>5.2042809483544235E-2</v>
-      </c>
-      <c r="AG18">
-        <f t="shared" si="10"/>
         <v>112.42748026773251</v>
       </c>
-      <c r="AH18">
-        <f t="shared" si="1"/>
-        <v>0.36594778339077477</v>
-      </c>
-      <c r="AJ18">
-        <f t="shared" si="11"/>
-        <v>4.482076838312677E-2</v>
-      </c>
-      <c r="AK18">
-        <f t="shared" si="12"/>
-        <v>5.2042809483544235E-2</v>
-      </c>
-      <c r="AL18">
-        <f t="shared" si="13"/>
-        <v>4.5905030334877948</v>
-      </c>
-      <c r="AM18">
-        <f t="shared" si="14"/>
-        <v>24.491320329726875</v>
-      </c>
-      <c r="AN18">
+      <c r="AM29">
         <f t="shared" si="15"/>
         <v>0.36594778339077477</v>
       </c>
-      <c r="AP18">
+      <c r="AO29">
+        <f t="shared" si="16"/>
+        <v>0.4904501590996323</v>
+      </c>
+      <c r="AP29">
+        <f t="shared" si="17"/>
+        <v>4.7560361977480262E-3</v>
+      </c>
+      <c r="AQ29">
         <f t="shared" si="2"/>
+        <v>4.5905030334877948</v>
+      </c>
+      <c r="AR29">
+        <f t="shared" si="3"/>
+        <v>24.491320329726875</v>
+      </c>
+      <c r="AS29">
+        <f t="shared" si="18"/>
+        <v>0.36594778339077477</v>
+      </c>
+      <c r="AU29">
+        <f t="shared" si="19"/>
         <v>2.3325987098691296E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:42" ht="16" x14ac:dyDescent="0.2">
-      <c r="A19" s="23">
+    <row r="30" spans="1:47" ht="16" x14ac:dyDescent="0.2">
+      <c r="A30" s="23">
         <v>2014</v>
       </c>
-      <c r="B19">
-        <v>27.059000000000001</v>
-      </c>
-      <c r="D19">
+      <c r="B30" s="28">
+        <v>27.175000000000001</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="21"/>
+        <v>2.3733283104162704E-2</v>
+      </c>
+      <c r="F30">
+        <v>30.2</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="8"/>
+        <v>8.2068499999999993</v>
+      </c>
+      <c r="H30">
+        <v>2.4220619999999999</v>
+      </c>
+      <c r="I30">
+        <v>0.68040670000000003</v>
+      </c>
+      <c r="J30">
+        <v>0.6230232</v>
+      </c>
+      <c r="K30">
+        <f t="shared" si="20"/>
+        <v>2.3646785000000001</v>
+      </c>
+      <c r="L30">
+        <v>81198</v>
+      </c>
+      <c r="O30">
+        <v>40223</v>
+      </c>
+      <c r="P30" s="25">
+        <v>39834033</v>
+      </c>
+      <c r="Q30" s="25">
+        <v>3645537</v>
+      </c>
+      <c r="T30">
+        <v>246024</v>
+      </c>
+      <c r="U30">
+        <v>216120</v>
+      </c>
+      <c r="V30" s="25">
+        <v>24666</v>
+      </c>
+      <c r="W30">
+        <f t="shared" si="4"/>
+        <v>240786</v>
+      </c>
+      <c r="X30">
+        <v>959624</v>
+      </c>
+      <c r="Y30" s="25">
+        <v>109942</v>
+      </c>
+      <c r="Z30">
+        <f t="shared" si="5"/>
+        <v>1069566</v>
+      </c>
+      <c r="AA30">
+        <v>26107</v>
+      </c>
+      <c r="AB30">
+        <v>23740</v>
+      </c>
+      <c r="AC30" s="25">
+        <v>3203</v>
+      </c>
+      <c r="AD30">
+        <f t="shared" si="6"/>
+        <v>26943</v>
+      </c>
+      <c r="AF30">
+        <f t="shared" si="9"/>
+        <v>8.2068499999999993</v>
+      </c>
+      <c r="AG30">
+        <f t="shared" si="10"/>
+        <v>81198000</v>
+      </c>
+      <c r="AH30">
+        <f t="shared" si="11"/>
+        <v>2.0186957710762501</v>
+      </c>
+      <c r="AI30">
+        <f t="shared" si="12"/>
+        <v>0.4953693440725141</v>
+      </c>
+      <c r="AJ30">
+        <f t="shared" si="13"/>
+        <v>0.99032973671779823</v>
+      </c>
+      <c r="AK30">
+        <f t="shared" si="14"/>
+        <v>5.4255113962475253E-3</v>
+      </c>
+      <c r="AL30">
+        <f t="shared" si="1"/>
+        <v>109.84638163982973</v>
+      </c>
+      <c r="AM30">
+        <f t="shared" si="15"/>
+        <v>0.34569713563605725</v>
+      </c>
+      <c r="AO30">
+        <f t="shared" si="16"/>
+        <v>0.49057899209340133</v>
+      </c>
+      <c r="AP30">
         <f t="shared" si="17"/>
-        <v>1.9363345262761324E-2</v>
-      </c>
-      <c r="F19">
+        <v>5.4255113962475253E-3</v>
+      </c>
+      <c r="AQ30">
+        <f t="shared" si="2"/>
+        <v>4.4402369054229132</v>
+      </c>
+      <c r="AR30">
+        <f t="shared" si="3"/>
+        <v>24.738856051953682</v>
+      </c>
+      <c r="AS30">
+        <f t="shared" si="18"/>
+        <v>0.34569713563605725</v>
+      </c>
+      <c r="AU30">
+        <f t="shared" si="19"/>
+        <v>2.6616419123623733E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:47" ht="16" x14ac:dyDescent="0.2">
+      <c r="A31" s="23">
+        <v>2015</v>
+      </c>
+      <c r="B31" s="28">
+        <v>26.641999999999999</v>
+      </c>
+      <c r="C31">
+        <v>-0.02</v>
+      </c>
+      <c r="D31">
+        <f xml:space="preserve"> (B31 - B30) / B30</f>
+        <v>-1.961361545538183E-2</v>
+      </c>
+      <c r="E31">
+        <v>0.307</v>
+      </c>
+      <c r="F31">
+        <v>29.7</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="8"/>
+        <v>7.9126739999999991</v>
+      </c>
+      <c r="H31">
+        <v>2.6024340000000001</v>
+      </c>
+      <c r="I31">
+        <v>0.74841000000000002</v>
+      </c>
+      <c r="J31">
+        <v>0.64416309999999999</v>
+      </c>
+      <c r="K31">
+        <f t="shared" si="20"/>
+        <v>2.4981871</v>
+      </c>
+      <c r="L31">
+        <v>82176</v>
+      </c>
+      <c r="O31">
+        <v>40774</v>
+      </c>
+      <c r="P31" s="25">
+        <v>40055438</v>
+      </c>
+      <c r="Q31" s="25">
+        <v>3670870</v>
+      </c>
+      <c r="R31">
+        <v>46.2</v>
+      </c>
+      <c r="S31" s="25">
+        <v>27630</v>
+      </c>
+      <c r="T31">
+        <v>267965</v>
+      </c>
+      <c r="U31">
+        <v>216727</v>
+      </c>
+      <c r="V31" s="25">
+        <v>26247</v>
+      </c>
+      <c r="W31">
+        <f t="shared" si="4"/>
+        <v>242974</v>
+      </c>
+      <c r="X31">
+        <v>943721</v>
+      </c>
+      <c r="Y31" s="25">
+        <v>113631</v>
+      </c>
+      <c r="Z31">
+        <f t="shared" si="5"/>
+        <v>1057352</v>
+      </c>
+      <c r="AA31">
+        <v>28185</v>
+      </c>
+      <c r="AB31">
+        <v>23613</v>
+      </c>
+      <c r="AC31" s="25">
+        <v>3281</v>
+      </c>
+      <c r="AD31">
+        <f t="shared" si="6"/>
+        <v>26894</v>
+      </c>
+      <c r="AF31">
+        <f t="shared" si="9"/>
+        <v>7.9126739999999991</v>
+      </c>
+      <c r="AG31">
+        <f t="shared" si="10"/>
+        <v>82176000</v>
+      </c>
+      <c r="AH31">
+        <f t="shared" si="11"/>
+        <v>2.0154019718448031</v>
+      </c>
+      <c r="AI31">
+        <f t="shared" si="12"/>
+        <v>0.49617893302180688</v>
+      </c>
+      <c r="AJ31">
+        <f t="shared" si="13"/>
+        <v>0.98237695590327168</v>
+      </c>
+      <c r="AK31">
+        <f t="shared" si="14"/>
+        <v>5.4106760734959382E-3</v>
+      </c>
+      <c r="AL31">
+        <f t="shared" si="1"/>
+        <v>108.9527377760962</v>
+      </c>
+      <c r="AM31">
+        <f t="shared" si="15"/>
+        <v>0.33509820861389911</v>
+      </c>
+      <c r="AO31">
+        <f t="shared" si="16"/>
+        <v>0.48743474980529594</v>
+      </c>
+      <c r="AP31">
+        <f t="shared" si="17"/>
+        <v>5.4106760734959382E-3</v>
+      </c>
+      <c r="AQ31">
+        <f t="shared" si="2"/>
+        <v>4.3544228453307614</v>
+      </c>
+      <c r="AR31">
+        <f t="shared" si="3"/>
+        <v>25.021166213319404</v>
+      </c>
+      <c r="AS31">
+        <f t="shared" si="18"/>
+        <v>0.33509820861389911</v>
+      </c>
+      <c r="AU31">
+        <f t="shared" si="19"/>
+        <v>2.6373515381619937E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:47" ht="16" x14ac:dyDescent="0.2">
+      <c r="A32" s="23">
+        <v>2016</v>
+      </c>
+      <c r="B32" s="28">
+        <v>27.504999999999999</v>
+      </c>
+      <c r="C32">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="21"/>
+        <v>3.2392463028301163E-2</v>
+      </c>
+      <c r="E32">
+        <v>0.314</v>
+      </c>
+      <c r="F32">
         <v>30.2</v>
       </c>
-      <c r="G19">
+      <c r="G32">
+        <f t="shared" si="8"/>
+        <v>8.3065099999999994</v>
+      </c>
+      <c r="H32">
+        <v>2.5099179999999999</v>
+      </c>
+      <c r="I32">
+        <v>0.7542953</v>
+      </c>
+      <c r="J32">
+        <v>0.87849849999999996</v>
+      </c>
+      <c r="K32">
+        <f t="shared" si="20"/>
+        <v>2.6341212000000001</v>
+      </c>
+      <c r="L32">
+        <v>82522</v>
+      </c>
+      <c r="O32">
+        <v>40960</v>
+      </c>
+      <c r="P32" s="25">
+        <v>40306520</v>
+      </c>
+      <c r="Q32" s="25">
+        <v>3698008</v>
+      </c>
+      <c r="R32">
+        <v>46.3</v>
+      </c>
+      <c r="S32" s="25">
+        <v>25810</v>
+      </c>
+      <c r="T32">
+        <v>316550</v>
+      </c>
+      <c r="U32">
+        <v>235658</v>
+      </c>
+      <c r="V32" s="25">
+        <v>35172</v>
+      </c>
+      <c r="W32">
+        <f t="shared" si="4"/>
+        <v>270830</v>
+      </c>
+      <c r="X32">
+        <v>988186</v>
+      </c>
+      <c r="Y32" s="25">
+        <v>131948</v>
+      </c>
+      <c r="Z32">
+        <f t="shared" si="5"/>
+        <v>1120134</v>
+      </c>
+      <c r="AA32">
+        <v>31342</v>
+      </c>
+      <c r="AB32">
+        <v>24876</v>
+      </c>
+      <c r="AC32" s="25">
+        <v>3787</v>
+      </c>
+      <c r="AD32">
+        <f t="shared" si="6"/>
+        <v>28663</v>
+      </c>
+      <c r="AF32">
+        <f t="shared" si="9"/>
+        <v>8.3065099999999994</v>
+      </c>
+      <c r="AG32">
+        <f t="shared" si="10"/>
+        <v>82522000</v>
+      </c>
+      <c r="AH32">
+        <f t="shared" si="11"/>
+        <v>2.0146972656250002</v>
+      </c>
+      <c r="AI32">
+        <f t="shared" si="12"/>
+        <v>0.49635248782142943</v>
+      </c>
+      <c r="AJ32">
+        <f t="shared" si="13"/>
+        <v>0.98404589843750001</v>
+      </c>
+      <c r="AK32">
+        <f t="shared" si="14"/>
+        <v>5.846647142943623E-3</v>
+      </c>
+      <c r="AL32">
+        <f t="shared" si="1"/>
+        <v>105.5597518437736</v>
+      </c>
+      <c r="AM32">
+        <f t="shared" si="15"/>
+        <v>0.33391662646727766</v>
+      </c>
+      <c r="AO32">
+        <f t="shared" si="16"/>
+        <v>0.48843362981992683</v>
+      </c>
+      <c r="AP32">
+        <f t="shared" si="17"/>
+        <v>5.846647142943623E-3</v>
+      </c>
+      <c r="AQ32">
+        <f t="shared" si="2"/>
+        <v>4.193305552962344</v>
+      </c>
+      <c r="AR32">
         <f t="shared" si="3"/>
-        <v>8.171818</v>
-      </c>
-      <c r="H19">
-        <v>2.4220619999999999</v>
-      </c>
-      <c r="I19">
-        <v>0.68040670000000003</v>
-      </c>
-      <c r="J19">
-        <v>0.6230232</v>
-      </c>
-      <c r="K19">
+        <v>25.173398530236209</v>
+      </c>
+      <c r="AS32">
+        <f t="shared" si="18"/>
+        <v>0.33391662646727766</v>
+      </c>
+      <c r="AU32">
+        <f t="shared" si="19"/>
+        <v>2.8556990863042582E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:47" ht="16" x14ac:dyDescent="0.2">
+      <c r="A33" s="23">
+        <v>2017</v>
+      </c>
+      <c r="B33" s="28">
+        <v>28.870999999999999</v>
+      </c>
+      <c r="C33">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="21"/>
+        <v>4.9663697509543706E-2</v>
+      </c>
+      <c r="E33">
+        <v>0.317</v>
+      </c>
+      <c r="F33">
+        <v>29.9</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="8"/>
+        <v>8.6324290000000001</v>
+      </c>
+      <c r="H33">
+        <v>2.646328</v>
+      </c>
+      <c r="I33">
+        <v>0.68272580000000005</v>
+      </c>
+      <c r="J33">
+        <v>0.89444809999999997</v>
+      </c>
+      <c r="K33">
+        <f t="shared" si="20"/>
+        <v>2.8580502999999999</v>
+      </c>
+      <c r="L33">
+        <v>82792</v>
+      </c>
+      <c r="O33">
+        <v>41304</v>
+      </c>
+      <c r="P33" s="25">
+        <v>40566345</v>
+      </c>
+      <c r="Q33" s="25">
+        <v>3725902</v>
+      </c>
+      <c r="R33">
+        <v>46.5</v>
+      </c>
+      <c r="S33" s="25">
+        <v>24867</v>
+      </c>
+      <c r="T33">
+        <v>300349</v>
+      </c>
+      <c r="U33">
+        <v>245304</v>
+      </c>
+      <c r="V33" s="25">
+        <v>33803</v>
+      </c>
+      <c r="W33">
+        <f t="shared" si="4"/>
+        <v>279107</v>
+      </c>
+      <c r="X33">
+        <v>1004792</v>
+      </c>
+      <c r="Y33" s="25">
+        <v>128518</v>
+      </c>
+      <c r="Z33">
+        <f t="shared" si="5"/>
+        <v>1133310</v>
+      </c>
+      <c r="AA33">
+        <v>29990</v>
+      </c>
+      <c r="AB33">
+        <v>25602</v>
+      </c>
+      <c r="AC33" s="25">
+        <v>3733</v>
+      </c>
+      <c r="AD33">
+        <f t="shared" si="6"/>
+        <v>29335</v>
+      </c>
+      <c r="AF33">
+        <f t="shared" si="9"/>
+        <v>8.6324290000000001</v>
+      </c>
+      <c r="AG33">
+        <f t="shared" si="10"/>
+        <v>82792000</v>
+      </c>
+      <c r="AH33">
+        <f t="shared" si="11"/>
+        <v>2.0044547743559944</v>
+      </c>
+      <c r="AI33">
+        <f t="shared" si="12"/>
+        <v>0.498888781524785</v>
+      </c>
+      <c r="AJ33">
+        <f t="shared" si="13"/>
+        <v>0.98214083381754791</v>
+      </c>
+      <c r="AK33">
+        <f t="shared" si="14"/>
+        <v>6.0469830348285009E-3</v>
+      </c>
+      <c r="AL33">
+        <f t="shared" si="1"/>
+        <v>104.3684570981313</v>
+      </c>
+      <c r="AM33">
+        <f t="shared" si="15"/>
+        <v>0.33717791578782907</v>
+      </c>
+      <c r="AO33">
         <f t="shared" si="16"/>
-        <v>2.3646785000000001</v>
-      </c>
-      <c r="L19">
-        <v>81198</v>
-      </c>
-      <c r="O19">
-        <v>40223</v>
-      </c>
-      <c r="P19">
-        <v>3645537</v>
-      </c>
-      <c r="S19">
-        <v>246024</v>
-      </c>
-      <c r="T19">
-        <v>216120</v>
-      </c>
-      <c r="U19">
-        <v>959624</v>
-      </c>
-      <c r="V19">
-        <v>26107</v>
-      </c>
-      <c r="W19">
-        <v>23740</v>
-      </c>
-      <c r="AA19">
-        <f t="shared" si="0"/>
-        <v>8.171818</v>
-      </c>
-      <c r="AB19">
+        <v>0.48997904386897284</v>
+      </c>
+      <c r="AP33">
+        <f t="shared" si="17"/>
+        <v>6.0469830348285009E-3</v>
+      </c>
+      <c r="AQ33">
+        <f t="shared" si="2"/>
+        <v>4.0961093174183869</v>
+      </c>
+      <c r="AR33">
+        <f t="shared" si="3"/>
+        <v>25.479900317677689</v>
+      </c>
+      <c r="AS33">
+        <f t="shared" si="18"/>
+        <v>0.33717791578782907</v>
+      </c>
+      <c r="AU33">
+        <f t="shared" si="19"/>
+        <v>2.9628949656971687E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:47" ht="16" x14ac:dyDescent="0.2">
+      <c r="A34" s="23">
+        <v>2018</v>
+      </c>
+      <c r="B34" s="28">
+        <v>29.129000000000001</v>
+      </c>
+      <c r="C34">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="21"/>
+        <v>8.9363028644661655E-3</v>
+      </c>
+      <c r="E34">
+        <v>0.32</v>
+      </c>
+      <c r="F34">
+        <v>30.1</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="8"/>
+        <v>8.7678290000000008</v>
+      </c>
+      <c r="H34">
+        <v>2.3692500000000001</v>
+      </c>
+      <c r="I34">
+        <v>0.698716</v>
+      </c>
+      <c r="J34">
+        <v>0.93753299999999995</v>
+      </c>
+      <c r="K34">
+        <f t="shared" si="20"/>
+        <v>2.6080670000000001</v>
+      </c>
+      <c r="L34">
+        <v>83019</v>
+      </c>
+      <c r="O34">
+        <v>41378</v>
+      </c>
+      <c r="P34" s="25">
+        <v>40828717</v>
+      </c>
+      <c r="Q34" s="25">
+        <v>3753715</v>
+      </c>
+      <c r="R34">
+        <v>46.7</v>
+      </c>
+      <c r="S34" s="25">
+        <v>24234</v>
+      </c>
+      <c r="T34">
+        <v>302209</v>
+      </c>
+      <c r="U34">
+        <v>251338</v>
+      </c>
+      <c r="V34" s="25">
+        <v>30273</v>
+      </c>
+      <c r="W34">
+        <f t="shared" si="4"/>
+        <v>281611</v>
+      </c>
+      <c r="X34">
+        <v>1004780</v>
+      </c>
+      <c r="Y34" s="25">
+        <v>120289</v>
+      </c>
+      <c r="Z34">
         <f t="shared" si="5"/>
-        <v>81198000</v>
-      </c>
-      <c r="AC19">
+        <v>1125069</v>
+      </c>
+      <c r="AA34">
+        <v>30163</v>
+      </c>
+      <c r="AB34">
+        <v>25776</v>
+      </c>
+      <c r="AC34" s="25">
+        <v>3561</v>
+      </c>
+      <c r="AD34">
         <f t="shared" si="6"/>
-        <v>2.0186957710762501</v>
-      </c>
-      <c r="AD19">
-        <f t="shared" si="7"/>
-        <v>0.4953693440725141</v>
-      </c>
-      <c r="AE19">
-        <f t="shared" si="8"/>
-        <v>9.063314521542401E-2</v>
-      </c>
-      <c r="AF19">
+        <v>29337</v>
+      </c>
+      <c r="AF34">
         <f t="shared" si="9"/>
-        <v>5.9283447130011296E-2</v>
-      </c>
-      <c r="AG19">
+        <v>8.7678290000000008</v>
+      </c>
+      <c r="AG34">
         <f t="shared" si="10"/>
-        <v>109.84638163982973</v>
-      </c>
-      <c r="AH19">
+        <v>83019000</v>
+      </c>
+      <c r="AH34">
+        <f t="shared" si="11"/>
+        <v>2.0063560346077627</v>
+      </c>
+      <c r="AI34">
+        <f t="shared" si="12"/>
+        <v>0.49841602524723255</v>
+      </c>
+      <c r="AJ34">
+        <f t="shared" si="13"/>
+        <v>0.98672524046594812</v>
+      </c>
+      <c r="AK34">
+        <f t="shared" si="14"/>
+        <v>6.1559122712575073E-3</v>
+      </c>
+      <c r="AL34">
         <f t="shared" si="1"/>
-        <v>0.34422148272957037</v>
-      </c>
-      <c r="AJ19">
-        <f t="shared" si="11"/>
-        <v>4.4896881696593512E-2</v>
-      </c>
-      <c r="AK19">
-        <f t="shared" si="12"/>
-        <v>5.9283447130011296E-2</v>
-      </c>
-      <c r="AL19">
-        <f t="shared" si="13"/>
-        <v>4.4402369054229132</v>
-      </c>
-      <c r="AM19">
-        <f t="shared" si="14"/>
-        <v>24.738856051953682</v>
-      </c>
-      <c r="AN19">
+        <v>102.55512497115438</v>
+      </c>
+      <c r="AM34">
         <f t="shared" si="15"/>
-        <v>0.34422148272957037</v>
-      </c>
-      <c r="AP19">
+        <v>0.34015475636250775</v>
+      </c>
+      <c r="AO34">
+        <f t="shared" si="16"/>
+        <v>0.49179967236415761</v>
+      </c>
+      <c r="AP34">
+        <f t="shared" si="17"/>
+        <v>6.1559122712575073E-3</v>
+      </c>
+      <c r="AQ34">
         <f t="shared" si="2"/>
-        <v>2.6616419123623733E-3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:42" ht="16" x14ac:dyDescent="0.2">
-      <c r="A20" s="23">
-        <v>2015</v>
-      </c>
-      <c r="B20">
-        <v>26.6</v>
-      </c>
-      <c r="C20">
-        <v>-0.02</v>
-      </c>
-      <c r="D20">
-        <f xml:space="preserve"> (B20 - B19) / B19</f>
-        <v>-1.6962932850437918E-2</v>
-      </c>
-      <c r="E20">
-        <v>0.307</v>
-      </c>
-      <c r="F20">
-        <v>29.7</v>
-      </c>
-      <c r="G20">
+        <v>3.9977241801876358</v>
+      </c>
+      <c r="AR34">
         <f t="shared" si="3"/>
-        <v>7.9001999999999999</v>
-      </c>
-      <c r="H20">
-        <v>2.6024340000000001</v>
-      </c>
-      <c r="I20">
-        <v>0.74841000000000002</v>
-      </c>
-      <c r="J20">
-        <v>0.64416309999999999</v>
-      </c>
-      <c r="K20">
-        <f t="shared" si="16"/>
-        <v>2.4981871</v>
-      </c>
-      <c r="L20">
-        <v>82176</v>
-      </c>
-      <c r="O20">
-        <v>40774</v>
-      </c>
-      <c r="P20">
-        <v>3670870</v>
-      </c>
-      <c r="Q20">
-        <v>3794976</v>
-      </c>
-      <c r="R20">
-        <v>46.2</v>
-      </c>
-      <c r="S20">
-        <v>267965</v>
-      </c>
-      <c r="T20">
-        <v>216727</v>
-      </c>
-      <c r="U20">
-        <v>943721</v>
-      </c>
-      <c r="V20">
-        <v>28185</v>
-      </c>
-      <c r="W20">
-        <v>23613</v>
-      </c>
-      <c r="AA20">
-        <f t="shared" si="0"/>
-        <v>7.9001999999999999</v>
-      </c>
-      <c r="AB20">
-        <f t="shared" si="5"/>
-        <v>82176000</v>
-      </c>
-      <c r="AC20">
-        <f t="shared" si="6"/>
-        <v>2.0154019718448031</v>
-      </c>
-      <c r="AD20">
-        <f t="shared" si="7"/>
-        <v>0.49617893302180688</v>
-      </c>
-      <c r="AE20">
-        <f t="shared" si="8"/>
-        <v>9.0029675773777407E-2</v>
-      </c>
-      <c r="AF20">
-        <f t="shared" si="9"/>
-        <v>5.9039682691024199E-2</v>
-      </c>
-      <c r="AG20">
-        <f t="shared" si="10"/>
-        <v>108.9527377760962</v>
-      </c>
-      <c r="AH20">
-        <f t="shared" si="1"/>
-        <v>0.33456994028713</v>
-      </c>
-      <c r="AJ20">
-        <f t="shared" si="11"/>
-        <v>4.4670828465732088E-2</v>
-      </c>
-      <c r="AK20">
-        <f t="shared" si="12"/>
-        <v>5.9039682691024199E-2</v>
-      </c>
-      <c r="AL20">
-        <f t="shared" si="13"/>
-        <v>4.3544228453307614</v>
-      </c>
-      <c r="AM20">
-        <f t="shared" si="14"/>
-        <v>25.021166213319404</v>
-      </c>
-      <c r="AN20">
-        <f t="shared" si="15"/>
-        <v>0.33456994028713</v>
-      </c>
-      <c r="AP20">
-        <f t="shared" si="2"/>
-        <v>2.6373515381619937E-3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:42" ht="16" x14ac:dyDescent="0.2">
-      <c r="A21" s="23">
-        <v>2016</v>
-      </c>
-      <c r="B21">
-        <v>27.5</v>
-      </c>
-      <c r="C21">
-        <v>3.2000000000000001E-2</v>
-      </c>
-      <c r="D21">
-        <f t="shared" si="17"/>
-        <v>3.3834586466165356E-2</v>
-      </c>
-      <c r="E21">
-        <v>0.314</v>
-      </c>
-      <c r="F21">
-        <v>30.2</v>
-      </c>
-      <c r="G21">
-        <f t="shared" si="3"/>
-        <v>8.3049999999999997</v>
-      </c>
-      <c r="H21">
-        <v>2.5099179999999999</v>
-      </c>
-      <c r="I21">
-        <v>0.7542953</v>
-      </c>
-      <c r="J21">
-        <v>0.87849849999999996</v>
-      </c>
-      <c r="K21">
-        <f t="shared" si="16"/>
-        <v>2.6341212000000001</v>
-      </c>
-      <c r="L21">
-        <v>82522</v>
-      </c>
-      <c r="O21">
-        <v>40960</v>
-      </c>
-      <c r="P21">
-        <v>3698008</v>
-      </c>
-      <c r="Q21">
-        <v>3822507</v>
-      </c>
-      <c r="R21">
-        <v>46.3</v>
-      </c>
-      <c r="S21">
-        <v>316550</v>
-      </c>
-      <c r="T21">
-        <v>235658</v>
-      </c>
-      <c r="U21">
-        <v>988186</v>
-      </c>
-      <c r="V21">
-        <v>31342</v>
-      </c>
-      <c r="W21">
-        <v>24876</v>
-      </c>
-      <c r="AA21">
-        <f t="shared" si="0"/>
-        <v>8.3049999999999997</v>
-      </c>
-      <c r="AB21">
-        <f t="shared" si="5"/>
-        <v>82522000</v>
-      </c>
-      <c r="AC21">
-        <f t="shared" si="6"/>
-        <v>2.0146972656250002</v>
-      </c>
-      <c r="AD21">
-        <f t="shared" si="7"/>
-        <v>0.49635248782142943</v>
-      </c>
-      <c r="AE21">
-        <f t="shared" si="8"/>
-        <v>9.0283398437499995E-2</v>
-      </c>
-      <c r="AF21">
-        <f xml:space="preserve"> T21 / P21</f>
-        <v>6.3725659868772599E-2</v>
-      </c>
-      <c r="AG21">
-        <f t="shared" si="10"/>
-        <v>105.5597518437736</v>
-      </c>
-      <c r="AH21">
-        <f t="shared" si="1"/>
-        <v>0.33385592538993408</v>
-      </c>
-      <c r="AJ21">
-        <f t="shared" si="11"/>
-        <v>4.4812389423426482E-2</v>
-      </c>
-      <c r="AK21">
-        <f t="shared" si="12"/>
-        <v>6.3725659868772599E-2</v>
-      </c>
-      <c r="AL21">
-        <f t="shared" si="13"/>
-        <v>4.193305552962344</v>
-      </c>
-      <c r="AM21">
-        <f t="shared" si="14"/>
-        <v>25.173398530236209</v>
-      </c>
-      <c r="AN21">
-        <f t="shared" si="15"/>
-        <v>0.33385592538993408</v>
-      </c>
-      <c r="AP21">
-        <f t="shared" si="2"/>
-        <v>2.8556990863042582E-3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:42" ht="16" x14ac:dyDescent="0.2">
-      <c r="A22" s="23">
-        <v>2017</v>
-      </c>
-      <c r="B22">
-        <v>28.8</v>
-      </c>
-      <c r="C22">
-        <v>4.8000000000000001E-2</v>
-      </c>
-      <c r="D22">
-        <f t="shared" si="17"/>
-        <v>4.72727272727273E-2</v>
-      </c>
-      <c r="E22">
-        <v>0.317</v>
-      </c>
-      <c r="F22">
-        <v>29.9</v>
-      </c>
-      <c r="G22">
-        <f t="shared" si="3"/>
-        <v>8.6112000000000002</v>
-      </c>
-      <c r="H22">
-        <v>2.646328</v>
-      </c>
-      <c r="I22">
-        <v>0.68272580000000005</v>
-      </c>
-      <c r="J22">
-        <v>0.89444809999999997</v>
-      </c>
-      <c r="K22">
-        <f t="shared" si="16"/>
-        <v>2.8580502999999999</v>
-      </c>
-      <c r="L22">
-        <v>82792</v>
-      </c>
-      <c r="O22">
-        <v>41304</v>
-      </c>
-      <c r="P22">
-        <v>3725902</v>
-      </c>
-      <c r="Q22">
-        <v>3850742</v>
-      </c>
-      <c r="R22">
-        <v>46.5</v>
-      </c>
-      <c r="S22">
-        <v>300349</v>
-      </c>
-      <c r="T22">
-        <v>245304</v>
-      </c>
-      <c r="U22">
-        <v>1004792</v>
-      </c>
-      <c r="V22">
-        <v>29990</v>
-      </c>
-      <c r="W22">
-        <v>25602</v>
-      </c>
-      <c r="AA22">
-        <f t="shared" si="0"/>
-        <v>8.6112000000000002</v>
-      </c>
-      <c r="AB22">
-        <f t="shared" si="5"/>
-        <v>82792000</v>
-      </c>
-      <c r="AC22">
-        <f t="shared" si="6"/>
-        <v>2.0044547743559944</v>
-      </c>
-      <c r="AD22">
-        <f t="shared" si="7"/>
-        <v>0.498888781524785</v>
-      </c>
-      <c r="AE22">
-        <f t="shared" si="8"/>
-        <v>9.0206808057331014E-2</v>
-      </c>
-      <c r="AF22">
-        <f t="shared" si="9"/>
-        <v>6.5837480427558215E-2</v>
-      </c>
-      <c r="AG22">
-        <f t="shared" si="10"/>
-        <v>104.3684570981313</v>
-      </c>
-      <c r="AH22">
-        <f t="shared" si="1"/>
-        <v>0.33634872275603467</v>
-      </c>
-      <c r="AJ22">
-        <f t="shared" si="11"/>
-        <v>4.5003164556962023E-2</v>
-      </c>
-      <c r="AK22">
-        <f t="shared" si="12"/>
-        <v>6.5837480427558215E-2</v>
-      </c>
-      <c r="AL22">
-        <f t="shared" si="13"/>
-        <v>4.0961093174183869</v>
-      </c>
-      <c r="AM22">
-        <f t="shared" si="14"/>
-        <v>25.479900317677689</v>
-      </c>
-      <c r="AN22">
-        <f t="shared" si="15"/>
-        <v>0.33634872275603467</v>
-      </c>
-      <c r="AP22">
-        <f t="shared" si="2"/>
-        <v>2.9628949656971687E-3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:42" ht="16" x14ac:dyDescent="0.2">
-      <c r="A23" s="23">
-        <v>2018</v>
-      </c>
-      <c r="B23">
-        <v>29</v>
-      </c>
-      <c r="C23">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="D23">
-        <f t="shared" si="17"/>
-        <v>6.9444444444444198E-3</v>
-      </c>
-      <c r="E23">
-        <v>0.32</v>
-      </c>
-      <c r="F23">
-        <v>30.1</v>
-      </c>
-      <c r="G23">
-        <f t="shared" si="3"/>
-        <v>8.729000000000001</v>
-      </c>
-      <c r="H23">
-        <v>2.3692500000000001</v>
-      </c>
-      <c r="I23">
-        <v>0.698716</v>
-      </c>
-      <c r="J23">
-        <v>0.93753299999999995</v>
-      </c>
-      <c r="K23">
-        <f t="shared" si="16"/>
-        <v>2.6080670000000001</v>
-      </c>
-      <c r="L23">
-        <v>83019</v>
-      </c>
-      <c r="O23">
-        <v>41378</v>
-      </c>
-      <c r="P23">
-        <v>3753715</v>
-      </c>
-      <c r="Q23">
-        <v>3878901</v>
-      </c>
-      <c r="R23">
-        <v>46.7</v>
-      </c>
-      <c r="S23">
-        <v>302209</v>
-      </c>
-      <c r="T23">
-        <v>251338</v>
-      </c>
-      <c r="U23">
-        <v>1004780</v>
-      </c>
-      <c r="V23">
-        <v>30163</v>
-      </c>
-      <c r="W23">
-        <v>25776</v>
-      </c>
-      <c r="AA23">
-        <f t="shared" si="0"/>
-        <v>8.729000000000001</v>
-      </c>
-      <c r="AB23">
-        <f t="shared" si="5"/>
-        <v>83019000</v>
-      </c>
-      <c r="AC23">
-        <f t="shared" si="6"/>
-        <v>2.0063560346077627</v>
-      </c>
-      <c r="AD23">
-        <f t="shared" si="7"/>
-        <v>0.49841602524723255</v>
-      </c>
-      <c r="AE23">
-        <f t="shared" si="8"/>
-        <v>9.0717651892309917E-2</v>
-      </c>
-      <c r="AF23">
-        <f t="shared" si="9"/>
-        <v>6.6957134465456217E-2</v>
-      </c>
-      <c r="AG23">
-        <f t="shared" si="10"/>
-        <v>102.55512497115438</v>
-      </c>
-      <c r="AH23">
-        <f t="shared" si="1"/>
-        <v>0.33864835505896967</v>
-      </c>
-      <c r="AJ23">
-        <f t="shared" si="11"/>
-        <v>4.5215131475927199E-2</v>
-      </c>
-      <c r="AK23">
-        <f t="shared" si="12"/>
-        <v>6.6957134465456217E-2</v>
-      </c>
-      <c r="AL23">
-        <f t="shared" si="13"/>
-        <v>3.9977241801876358</v>
-      </c>
-      <c r="AM23">
-        <f t="shared" si="14"/>
         <v>25.653376858615815</v>
       </c>
-      <c r="AN23">
-        <f t="shared" si="15"/>
-        <v>0.33864835505896967</v>
-      </c>
-      <c r="AP23">
-        <f t="shared" si="2"/>
+      <c r="AS34">
+        <f t="shared" si="18"/>
+        <v>0.34015475636250775</v>
+      </c>
+      <c r="AU34">
+        <f t="shared" si="19"/>
         <v>3.0274756381069392E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:42" ht="16" x14ac:dyDescent="0.2">
-      <c r="A24" s="23">
+    <row r="35" spans="1:47" ht="16" x14ac:dyDescent="0.2">
+      <c r="A35" s="23">
         <v>2019</v>
       </c>
-      <c r="B24">
-        <v>28.7</v>
-      </c>
-      <c r="C24">
+      <c r="B35" s="28">
+        <v>28.751999999999999</v>
+      </c>
+      <c r="C35">
         <f>-1.6%</f>
         <v>-1.6E-2</v>
       </c>
-      <c r="D24">
+      <c r="D35">
+        <f t="shared" si="21"/>
+        <v>-1.2942428507672849E-2</v>
+      </c>
+      <c r="E35">
+        <v>0.33</v>
+      </c>
+      <c r="F35">
+        <v>31.6</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="8"/>
+        <v>9.0856320000000004</v>
+      </c>
+      <c r="H35">
+        <v>2.3691279999999999</v>
+      </c>
+      <c r="I35">
+        <v>0.60031140000000005</v>
+      </c>
+      <c r="J35">
+        <v>0.7812325</v>
+      </c>
+      <c r="K35">
+        <f t="shared" si="20"/>
+        <v>2.5500490999999998</v>
+      </c>
+      <c r="L35">
+        <v>83167</v>
+      </c>
+      <c r="O35">
+        <v>41506</v>
+      </c>
+      <c r="P35" s="25">
+        <v>41100328</v>
+      </c>
+      <c r="Q35" s="25">
+        <v>3782746</v>
+      </c>
+      <c r="R35">
+        <v>47</v>
+      </c>
+      <c r="S35" s="25">
+        <v>20969</v>
+      </c>
+      <c r="T35">
+        <v>311138</v>
+      </c>
+      <c r="U35">
+        <v>255925</v>
+      </c>
+      <c r="V35" s="25">
+        <v>30789</v>
+      </c>
+      <c r="W35">
+        <f t="shared" si="4"/>
+        <v>286714</v>
+      </c>
+      <c r="X35">
+        <v>1021048</v>
+      </c>
+      <c r="Y35" s="25">
+        <v>123504</v>
+      </c>
+      <c r="Z35">
+        <f t="shared" si="5"/>
+        <v>1144552</v>
+      </c>
+      <c r="AA35">
+        <v>31070</v>
+      </c>
+      <c r="AB35">
+        <v>26401</v>
+      </c>
+      <c r="AC35" s="25">
+        <v>3714</v>
+      </c>
+      <c r="AD35">
+        <f t="shared" si="6"/>
+        <v>30115</v>
+      </c>
+      <c r="AF35">
+        <f t="shared" si="9"/>
+        <v>9.0856320000000004</v>
+      </c>
+      <c r="AG35">
+        <f t="shared" si="10"/>
+        <v>83167000</v>
+      </c>
+      <c r="AH35">
+        <f t="shared" si="11"/>
+        <v>2.0037343998458055</v>
+      </c>
+      <c r="AI35">
+        <f t="shared" si="12"/>
+        <v>0.49906814000745486</v>
+      </c>
+      <c r="AJ35">
+        <f t="shared" si="13"/>
+        <v>0.99022618416614461</v>
+      </c>
+      <c r="AK35">
+        <f t="shared" si="14"/>
+        <v>6.226835951284866E-3</v>
+      </c>
+      <c r="AL35">
+        <f t="shared" si="1"/>
+        <v>103.15912865097197</v>
+      </c>
+      <c r="AM35">
+        <f t="shared" si="15"/>
+        <v>0.34413969167834552</v>
+      </c>
+      <c r="AO35">
+        <f t="shared" si="16"/>
+        <v>0.49419033991847727</v>
+      </c>
+      <c r="AP35">
         <f t="shared" si="17"/>
-        <v>-1.0344827586206921E-2</v>
-      </c>
-      <c r="E24">
-        <v>0.33</v>
-      </c>
-      <c r="F24">
-        <v>31.6</v>
-      </c>
-      <c r="G24">
+        <v>6.226835951284866E-3</v>
+      </c>
+      <c r="AQ35">
+        <f t="shared" si="2"/>
+        <v>3.9896375891374425</v>
+      </c>
+      <c r="AR35">
         <f t="shared" si="3"/>
-        <v>9.0692000000000004</v>
-      </c>
-      <c r="H24">
-        <v>2.3691279999999999</v>
-      </c>
-      <c r="I24">
-        <v>0.60031140000000005</v>
-      </c>
-      <c r="J24">
-        <v>0.7812325</v>
-      </c>
-      <c r="K24">
+        <v>25.856766772962683</v>
+      </c>
+      <c r="AS35">
+        <f t="shared" si="18"/>
+        <v>0.34413969167834552</v>
+      </c>
+      <c r="AU35">
+        <f t="shared" si="19"/>
+        <v>3.0772421753820626E-3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:47" ht="16" x14ac:dyDescent="0.2">
+      <c r="A36" s="23">
+        <v>2020</v>
+      </c>
+      <c r="B36" s="28">
+        <v>30.129000000000001</v>
+      </c>
+      <c r="C36">
+        <v>4.7E-2</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="21"/>
+        <v>4.7892320534223792E-2</v>
+      </c>
+      <c r="E36">
+        <v>0.312</v>
+      </c>
+      <c r="F36">
+        <v>31.2</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="8"/>
+        <v>9.4002479999999995</v>
+      </c>
+      <c r="H36">
+        <v>2.312929</v>
+      </c>
+      <c r="I36">
+        <v>0.55642645000000002</v>
+      </c>
+      <c r="J36">
+        <v>0.731898139</v>
+      </c>
+      <c r="K36">
+        <f t="shared" si="20"/>
+        <v>2.4884006890000001</v>
+      </c>
+      <c r="L36">
+        <v>83155</v>
+      </c>
+      <c r="M36">
+        <v>40540</v>
+      </c>
+      <c r="N36">
+        <v>566</v>
+      </c>
+      <c r="O36">
+        <f t="shared" ref="O36:O39" si="22" xml:space="preserve"> M36 + N36</f>
+        <v>41106</v>
+      </c>
+      <c r="P36" s="25">
+        <v>41385919</v>
+      </c>
+      <c r="Q36" s="25">
+        <v>3812916</v>
+      </c>
+      <c r="R36">
+        <v>47.4</v>
+      </c>
+      <c r="S36" s="25">
+        <v>17954</v>
+      </c>
+      <c r="T36">
+        <v>320362</v>
+      </c>
+      <c r="U36">
+        <v>268774</v>
+      </c>
+      <c r="V36" s="25">
+        <v>31092</v>
+      </c>
+      <c r="W36">
+        <f t="shared" si="4"/>
+        <v>299866</v>
+      </c>
+      <c r="X36">
+        <v>1068823</v>
+      </c>
+      <c r="Y36" s="25">
+        <v>124391</v>
+      </c>
+      <c r="Z36">
+        <f t="shared" si="5"/>
+        <v>1193214</v>
+      </c>
+      <c r="AA36">
+        <v>31899</v>
+      </c>
+      <c r="AB36">
+        <v>27747</v>
+      </c>
+      <c r="AC36" s="25">
+        <v>3607</v>
+      </c>
+      <c r="AD36">
+        <f t="shared" si="6"/>
+        <v>31354</v>
+      </c>
+      <c r="AF36">
+        <f t="shared" si="9"/>
+        <v>9.4002479999999995</v>
+      </c>
+      <c r="AG36">
+        <f t="shared" si="10"/>
+        <v>83155000</v>
+      </c>
+      <c r="AH36">
+        <f t="shared" si="11"/>
+        <v>2.0229406899236122</v>
+      </c>
+      <c r="AI36">
+        <f t="shared" si="12"/>
+        <v>0.49432986591305395</v>
+      </c>
+      <c r="AJ36">
+        <f t="shared" si="13"/>
+        <v>1.0068096871502943</v>
+      </c>
+      <c r="AK36">
+        <f t="shared" si="14"/>
+        <v>6.4943344619216989E-3</v>
+      </c>
+      <c r="AL36">
+        <f t="shared" si="1"/>
+        <v>103.23543199863082</v>
+      </c>
+      <c r="AM36">
+        <f t="shared" si="15"/>
+        <v>0.3387843010055141</v>
+      </c>
+      <c r="AO36">
         <f t="shared" si="16"/>
-        <v>2.5500490999999998</v>
-      </c>
-      <c r="L24">
-        <v>83167</v>
-      </c>
-      <c r="O24">
-        <v>41506</v>
-      </c>
-      <c r="P24">
-        <v>3782746</v>
-      </c>
-      <c r="Q24">
-        <v>3908347</v>
-      </c>
-      <c r="R24">
-        <v>47</v>
-      </c>
-      <c r="S24">
-        <v>311138</v>
-      </c>
-      <c r="T24">
-        <v>255925</v>
-      </c>
-      <c r="U24">
-        <v>1021048</v>
-      </c>
-      <c r="V24">
-        <v>31070</v>
-      </c>
-      <c r="W24">
-        <v>26401</v>
-      </c>
-      <c r="AA24">
-        <f t="shared" si="0"/>
-        <v>9.0692000000000004</v>
-      </c>
-      <c r="AB24">
+        <v>0.49769609764896877</v>
+      </c>
+      <c r="AP36">
+        <f t="shared" si="17"/>
+        <v>6.4943344619216989E-3</v>
+      </c>
+      <c r="AQ36">
+        <f t="shared" si="2"/>
+        <v>3.9766606889059211</v>
+      </c>
+      <c r="AR36">
+        <f t="shared" si="3"/>
+        <v>25.960332066207407</v>
+      </c>
+      <c r="AS36">
+        <f t="shared" si="18"/>
+        <v>0.3387843010055141</v>
+      </c>
+      <c r="AU36">
+        <f t="shared" si="19"/>
+        <v>3.2322049185256447E-3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:47" ht="16" x14ac:dyDescent="0.2">
+      <c r="A37" s="23">
+        <v>2021</v>
+      </c>
+      <c r="B37" s="28">
+        <v>29.167000000000002</v>
+      </c>
+      <c r="C37">
+        <v>-3.3000000000000002E-2</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="21"/>
+        <v>-3.1929370374058207E-2</v>
+      </c>
+      <c r="E37">
+        <v>0.30199999999999999</v>
+      </c>
+      <c r="F37">
+        <v>30.2</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="8"/>
+        <v>8.8084340000000001</v>
+      </c>
+      <c r="H37">
+        <v>2.2487020000000002</v>
+      </c>
+      <c r="I37">
+        <v>0.66027969900000005</v>
+      </c>
+      <c r="J37">
+        <v>0.86254282500000001</v>
+      </c>
+      <c r="K37">
+        <f t="shared" si="20"/>
+        <v>2.4509651259999998</v>
+      </c>
+      <c r="L37">
+        <v>83237</v>
+      </c>
+      <c r="M37">
+        <v>40974</v>
+      </c>
+      <c r="N37">
+        <v>725</v>
+      </c>
+      <c r="O37">
+        <f t="shared" si="22"/>
+        <v>41699</v>
+      </c>
+      <c r="P37" s="25">
+        <v>41660773</v>
+      </c>
+      <c r="Q37" s="25">
+        <v>3841438</v>
+      </c>
+      <c r="R37">
+        <v>47.7</v>
+      </c>
+      <c r="S37" s="25">
+        <v>18470</v>
+      </c>
+      <c r="T37">
+        <v>328489</v>
+      </c>
+      <c r="U37">
+        <v>256352</v>
+      </c>
+      <c r="V37" s="25">
+        <v>30541</v>
+      </c>
+      <c r="W37">
+        <f t="shared" si="4"/>
+        <v>286893</v>
+      </c>
+      <c r="X37">
+        <v>991956</v>
+      </c>
+      <c r="Y37" s="25">
+        <v>122197</v>
+      </c>
+      <c r="Z37">
         <f t="shared" si="5"/>
-        <v>83167000</v>
-      </c>
-      <c r="AC24">
+        <v>1114153</v>
+      </c>
+      <c r="AA37">
+        <v>33085</v>
+      </c>
+      <c r="AB37">
+        <v>25845</v>
+      </c>
+      <c r="AC37" s="25">
+        <v>3585</v>
+      </c>
+      <c r="AD37">
         <f t="shared" si="6"/>
-        <v>2.0037343998458055</v>
-      </c>
-      <c r="AD24">
-        <f t="shared" si="7"/>
-        <v>0.49906814000745486</v>
-      </c>
-      <c r="AE24">
+        <v>29430</v>
+      </c>
+      <c r="AF37">
+        <f t="shared" si="9"/>
+        <v>8.8084340000000001</v>
+      </c>
+      <c r="AG37">
+        <f t="shared" si="10"/>
+        <v>83237000</v>
+      </c>
+      <c r="AH37">
+        <f t="shared" si="11"/>
+        <v>1.9961389961389961</v>
+      </c>
+      <c r="AI37">
+        <f t="shared" si="12"/>
+        <v>0.50096711798839455</v>
+      </c>
+      <c r="AJ37">
+        <f t="shared" si="13"/>
+        <v>0.99908326338761122</v>
+      </c>
+      <c r="AK37">
+        <f t="shared" si="14"/>
+        <v>6.1533183745774468E-3</v>
+      </c>
+      <c r="AL37">
+        <f t="shared" si="1"/>
+        <v>100.81840594182998</v>
+      </c>
+      <c r="AM37">
+        <f t="shared" si="15"/>
+        <v>0.34081772102921259</v>
+      </c>
+      <c r="AO37">
+        <f t="shared" si="16"/>
+        <v>0.50050786308973172</v>
+      </c>
+      <c r="AP37">
+        <f t="shared" si="17"/>
+        <v>6.1533183745774468E-3</v>
+      </c>
+      <c r="AQ37">
+        <f t="shared" si="2"/>
+        <v>3.8695075521158406</v>
+      </c>
+      <c r="AR37">
+        <f t="shared" si="3"/>
+        <v>26.054583066184389</v>
+      </c>
+      <c r="AS37">
+        <f t="shared" si="18"/>
+        <v>0.34081772102921259</v>
+      </c>
+      <c r="AU37">
+        <f t="shared" si="19"/>
+        <v>3.0797842305705396E-3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:47" ht="16" x14ac:dyDescent="0.2">
+      <c r="A38" s="23">
+        <v>2022</v>
+      </c>
+      <c r="B38" s="28">
+        <v>28.030999999999999</v>
+      </c>
+      <c r="C38">
+        <v>-3.9E-2</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="21"/>
+        <v>-3.894812630712801E-2</v>
+      </c>
+      <c r="E38">
+        <v>0.31</v>
+      </c>
+      <c r="F38">
+        <v>30.5</v>
+      </c>
+      <c r="G38">
         <f t="shared" si="8"/>
-        <v>9.1137329542716722E-2</v>
-      </c>
-      <c r="AF24">
+        <v>8.549455</v>
+      </c>
+      <c r="H38">
+        <v>2.001617</v>
+      </c>
+      <c r="I38">
+        <v>0.54960635999999996</v>
+      </c>
+      <c r="J38">
+        <v>0.97546490799999996</v>
+      </c>
+      <c r="K38">
+        <f t="shared" si="20"/>
+        <v>2.4274755480000003</v>
+      </c>
+      <c r="L38">
+        <v>84359</v>
+      </c>
+      <c r="M38">
+        <v>40965</v>
+      </c>
+      <c r="N38">
+        <v>754</v>
+      </c>
+      <c r="O38">
+        <f t="shared" si="22"/>
+        <v>41719</v>
+      </c>
+      <c r="P38" s="25">
+        <v>41938577</v>
+      </c>
+      <c r="Q38" s="25">
+        <v>3870328</v>
+      </c>
+      <c r="R38">
+        <v>47.4</v>
+      </c>
+      <c r="S38" s="25">
+        <v>16495</v>
+      </c>
+      <c r="T38">
+        <v>304323</v>
+      </c>
+      <c r="U38">
+        <v>258794</v>
+      </c>
+      <c r="V38" s="25">
+        <v>30546</v>
+      </c>
+      <c r="W38">
+        <f t="shared" si="4"/>
+        <v>289340</v>
+      </c>
+      <c r="X38">
+        <v>999591</v>
+      </c>
+      <c r="Y38" s="25">
+        <v>121619</v>
+      </c>
+      <c r="Z38">
+        <f t="shared" si="5"/>
+        <v>1121210</v>
+      </c>
+      <c r="AA38">
+        <v>29990</v>
+      </c>
+      <c r="AB38">
+        <v>26201</v>
+      </c>
+      <c r="AC38" s="25">
+        <v>3541</v>
+      </c>
+      <c r="AD38">
+        <f t="shared" si="6"/>
+        <v>29742</v>
+      </c>
+      <c r="AF38">
         <f t="shared" si="9"/>
-        <v>6.7655877502745362E-2</v>
-      </c>
-      <c r="AG24">
+        <v>8.549455</v>
+      </c>
+      <c r="AG38">
         <f t="shared" si="10"/>
-        <v>103.15912865097197</v>
-      </c>
-      <c r="AH24">
+        <v>84359000</v>
+      </c>
+      <c r="AH38">
+        <f t="shared" si="11"/>
+        <v>2.0220762722021139</v>
+      </c>
+      <c r="AI38">
+        <f t="shared" si="12"/>
+        <v>0.49454118706954803</v>
+      </c>
+      <c r="AJ38">
+        <f t="shared" si="13"/>
+        <v>1.0052632373738584</v>
+      </c>
+      <c r="AK38">
+        <f t="shared" si="14"/>
+        <v>6.1707863860044655E-3</v>
+      </c>
+      <c r="AL38">
         <f t="shared" si="1"/>
-        <v>0.34351729101170408</v>
-      </c>
-      <c r="AJ24">
+        <v>101.24268723386169</v>
+      </c>
+      <c r="AM38">
+        <f t="shared" si="15"/>
+        <v>0.32630262203732679</v>
+      </c>
+      <c r="AO38">
+        <f t="shared" si="16"/>
+        <v>0.49714407472824479</v>
+      </c>
+      <c r="AP38">
+        <f t="shared" si="17"/>
+        <v>6.1707863860044655E-3</v>
+      </c>
+      <c r="AQ38">
+        <f t="shared" si="2"/>
+        <v>3.8624968121362939</v>
+      </c>
+      <c r="AR38">
+        <f t="shared" si="3"/>
+        <v>26.211720593722834</v>
+      </c>
+      <c r="AS38">
+        <f t="shared" si="18"/>
+        <v>0.32630262203732679</v>
+      </c>
+      <c r="AU38">
+        <f t="shared" si="19"/>
+        <v>3.0677698882158396E-3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:47" ht="16" x14ac:dyDescent="0.2">
+      <c r="A39" s="23">
+        <v>2023</v>
+      </c>
+      <c r="M39">
+        <v>41330</v>
+      </c>
+      <c r="N39">
+        <v>935</v>
+      </c>
+      <c r="O39">
+        <f t="shared" si="22"/>
+        <v>42265</v>
+      </c>
+      <c r="T39">
+        <v>213646</v>
+      </c>
+      <c r="AA39">
+        <v>19931</v>
+      </c>
+      <c r="AF39">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AG39">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AH39">
         <f t="shared" si="11"/>
-        <v>4.5483737540130097E-2</v>
-      </c>
-      <c r="AK24">
+        <v>0</v>
+      </c>
+      <c r="AI39" t="e">
         <f t="shared" si="12"/>
-        <v>6.7655877502745362E-2</v>
-      </c>
-      <c r="AL24">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AJ39">
         <f t="shared" si="13"/>
-        <v>3.9896375891374425</v>
-      </c>
-      <c r="AM24">
+        <v>0</v>
+      </c>
+      <c r="AK39" t="e">
         <f t="shared" si="14"/>
-        <v>25.856766772962683</v>
-      </c>
-      <c r="AN24">
-        <f t="shared" si="15"/>
-        <v>0.34351729101170408</v>
-      </c>
-      <c r="AP24">
-        <f t="shared" si="2"/>
-        <v>3.0772421753820626E-3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:42" ht="16" x14ac:dyDescent="0.2">
-      <c r="A25" s="23">
-        <v>2020</v>
-      </c>
-      <c r="B25">
-        <v>30.1</v>
-      </c>
-      <c r="C25">
-        <v>4.7E-2</v>
-      </c>
-      <c r="D25">
-        <f t="shared" si="17"/>
-        <v>4.8780487804878127E-2</v>
-      </c>
-      <c r="E25">
-        <v>0.312</v>
-      </c>
-      <c r="F25">
-        <v>31.2</v>
-      </c>
-      <c r="G25">
-        <f t="shared" si="3"/>
-        <v>9.3911999999999995</v>
-      </c>
-      <c r="H25">
-        <v>2.312929</v>
-      </c>
-      <c r="I25">
-        <v>0.55642645000000002</v>
-      </c>
-      <c r="J25">
-        <v>0.731898139</v>
-      </c>
-      <c r="K25">
-        <f t="shared" si="16"/>
-        <v>2.4884006890000001</v>
-      </c>
-      <c r="L25">
-        <v>83155</v>
-      </c>
-      <c r="M25">
-        <v>40540</v>
-      </c>
-      <c r="N25">
-        <v>566</v>
-      </c>
-      <c r="O25">
-        <f t="shared" si="4"/>
-        <v>41106</v>
-      </c>
-      <c r="P25">
-        <v>3812916</v>
-      </c>
-      <c r="Q25">
-        <v>3938871</v>
-      </c>
-      <c r="R25">
-        <v>47.4</v>
-      </c>
-      <c r="S25">
-        <v>320362</v>
-      </c>
-      <c r="T25">
-        <v>268774</v>
-      </c>
-      <c r="U25">
-        <v>1068823</v>
-      </c>
-      <c r="V25">
-        <v>31899</v>
-      </c>
-      <c r="W25">
-        <v>27747</v>
-      </c>
-      <c r="AA25">
-        <f t="shared" si="0"/>
-        <v>9.3911999999999995</v>
-      </c>
-      <c r="AB25">
-        <f t="shared" si="5"/>
-        <v>83155000</v>
-      </c>
-      <c r="AC25">
-        <f t="shared" si="6"/>
-        <v>2.0229406899236122</v>
-      </c>
-      <c r="AD25">
-        <f t="shared" si="7"/>
-        <v>0.49432986591305395</v>
-      </c>
-      <c r="AE25">
-        <f t="shared" si="8"/>
-        <v>9.275813749817545E-2</v>
-      </c>
-      <c r="AF25">
-        <f t="shared" si="9"/>
-        <v>7.0490406817249579E-2</v>
-      </c>
-      <c r="AG25">
-        <f t="shared" si="10"/>
-        <v>103.23543199863082</v>
-      </c>
-      <c r="AH25">
-        <f t="shared" si="1"/>
-        <v>0.33845821169856199</v>
-      </c>
-      <c r="AJ25">
-        <f t="shared" si="11"/>
-        <v>4.5853117671817691E-2</v>
-      </c>
-      <c r="AK25">
-        <f t="shared" si="12"/>
-        <v>7.0490406817249579E-2</v>
-      </c>
-      <c r="AL25">
-        <f t="shared" si="13"/>
-        <v>3.9766606889059211</v>
-      </c>
-      <c r="AM25">
-        <f t="shared" si="14"/>
-        <v>25.960332066207407</v>
-      </c>
-      <c r="AN25">
-        <f t="shared" si="15"/>
-        <v>0.33845821169856199</v>
-      </c>
-      <c r="AP25">
-        <f t="shared" si="2"/>
-        <v>3.2322049185256447E-3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:42" ht="16" x14ac:dyDescent="0.2">
-      <c r="A26" s="23">
-        <v>2021</v>
-      </c>
-      <c r="B26">
-        <v>29.1</v>
-      </c>
-      <c r="C26">
-        <v>-3.3000000000000002E-2</v>
-      </c>
-      <c r="D26">
-        <f t="shared" si="17"/>
-        <v>-3.3222591362126241E-2</v>
-      </c>
-      <c r="E26">
-        <v>0.30199999999999999</v>
-      </c>
-      <c r="F26">
-        <v>30.2</v>
-      </c>
-      <c r="G26">
-        <f t="shared" si="3"/>
-        <v>8.7881999999999998</v>
-      </c>
-      <c r="H26">
-        <v>2.2487020000000002</v>
-      </c>
-      <c r="I26">
-        <v>0.66027969900000005</v>
-      </c>
-      <c r="J26">
-        <v>0.86254282500000001</v>
-      </c>
-      <c r="K26">
-        <f t="shared" si="16"/>
-        <v>2.4509651259999998</v>
-      </c>
-      <c r="L26">
-        <v>83237</v>
-      </c>
-      <c r="M26">
-        <v>40974</v>
-      </c>
-      <c r="N26">
-        <v>725</v>
-      </c>
-      <c r="O26">
-        <f t="shared" si="4"/>
-        <v>41699</v>
-      </c>
-      <c r="P26">
-        <v>3841438</v>
-      </c>
-      <c r="Q26">
-        <v>3967765</v>
-      </c>
-      <c r="R26">
-        <v>47.7</v>
-      </c>
-      <c r="S26">
-        <v>328489</v>
-      </c>
-      <c r="T26">
-        <v>256352</v>
-      </c>
-      <c r="U26">
-        <v>991956</v>
-      </c>
-      <c r="V26">
-        <v>33085</v>
-      </c>
-      <c r="W26">
-        <v>25845</v>
-      </c>
-      <c r="AA26">
-        <f t="shared" si="0"/>
-        <v>8.7881999999999998</v>
-      </c>
-      <c r="AB26">
-        <f t="shared" si="5"/>
-        <v>83237000</v>
-      </c>
-      <c r="AC26">
-        <f t="shared" si="6"/>
-        <v>1.9961389961389961</v>
-      </c>
-      <c r="AD26">
-        <f t="shared" si="7"/>
-        <v>0.50096711798839455</v>
-      </c>
-      <c r="AE26">
-        <f t="shared" si="8"/>
-        <v>9.2123024532962422E-2</v>
-      </c>
-      <c r="AF26">
-        <f t="shared" si="9"/>
-        <v>6.6733343086625374E-2</v>
-      </c>
-      <c r="AG26">
-        <f t="shared" si="10"/>
-        <v>100.81840594182998</v>
-      </c>
-      <c r="AH26">
-        <f t="shared" si="1"/>
-        <v>0.34003482298316889</v>
-      </c>
-      <c r="AJ26">
-        <f t="shared" si="11"/>
-        <v>4.6150606100652351E-2</v>
-      </c>
-      <c r="AK26">
-        <f t="shared" si="12"/>
-        <v>6.6733343086625374E-2</v>
-      </c>
-      <c r="AL26">
-        <f t="shared" si="13"/>
-        <v>3.8695075521158406</v>
-      </c>
-      <c r="AM26">
-        <f t="shared" si="14"/>
-        <v>26.054583066184389</v>
-      </c>
-      <c r="AN26">
-        <f t="shared" si="15"/>
-        <v>0.34003482298316889</v>
-      </c>
-      <c r="AP26">
-        <f t="shared" si="2"/>
-        <v>3.0797842305705396E-3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:42" ht="16" x14ac:dyDescent="0.2">
-      <c r="A27" s="23">
-        <v>2022</v>
-      </c>
-      <c r="B27">
-        <v>28</v>
-      </c>
-      <c r="C27">
-        <v>-3.9E-2</v>
-      </c>
-      <c r="D27">
-        <f t="shared" si="17"/>
-        <v>-3.7800687285223414E-2</v>
-      </c>
-      <c r="E27">
-        <v>0.31</v>
-      </c>
-      <c r="F27">
-        <v>30.5</v>
-      </c>
-      <c r="G27">
-        <f t="shared" si="3"/>
-        <v>8.5399999999999991</v>
-      </c>
-      <c r="H27">
-        <v>2.001617</v>
-      </c>
-      <c r="I27">
-        <v>0.54960635999999996</v>
-      </c>
-      <c r="J27">
-        <v>0.97546490799999996</v>
-      </c>
-      <c r="K27">
-        <f t="shared" si="16"/>
-        <v>2.4274755480000003</v>
-      </c>
-      <c r="L27">
-        <v>84359</v>
-      </c>
-      <c r="M27">
-        <v>40965</v>
-      </c>
-      <c r="N27">
-        <v>754</v>
-      </c>
-      <c r="O27">
-        <f t="shared" si="4"/>
-        <v>41719</v>
-      </c>
-      <c r="P27">
-        <v>3870328</v>
-      </c>
-      <c r="Q27">
-        <v>3996995</v>
-      </c>
-      <c r="R27">
-        <v>47.4</v>
-      </c>
-      <c r="S27">
-        <v>304323</v>
-      </c>
-      <c r="T27">
-        <v>258794</v>
-      </c>
-      <c r="U27">
-        <v>999591</v>
-      </c>
-      <c r="V27">
-        <v>29990</v>
-      </c>
-      <c r="W27">
-        <v>26201</v>
-      </c>
-      <c r="AA27">
-        <f t="shared" si="0"/>
-        <v>8.5399999999999991</v>
-      </c>
-      <c r="AB27">
-        <f t="shared" si="5"/>
-        <v>84359000</v>
-      </c>
-      <c r="AC27">
-        <f t="shared" si="6"/>
-        <v>2.0220762722021139</v>
-      </c>
-      <c r="AD27">
-        <f t="shared" si="7"/>
-        <v>0.49454118706954803</v>
-      </c>
-      <c r="AE27">
-        <f t="shared" si="8"/>
-        <v>9.2771351182914255E-2</v>
-      </c>
-      <c r="AF27">
-        <f t="shared" si="9"/>
-        <v>6.6866167415268157E-2</v>
-      </c>
-      <c r="AG27">
-        <f t="shared" si="10"/>
-        <v>101.24268723386169</v>
-      </c>
-      <c r="AH27">
-        <f t="shared" si="1"/>
-        <v>0.32594175794816993</v>
-      </c>
-      <c r="AJ27">
-        <f t="shared" si="11"/>
-        <v>4.5879254140044332E-2</v>
-      </c>
-      <c r="AK27">
-        <f t="shared" si="12"/>
-        <v>6.6866167415268157E-2</v>
-      </c>
-      <c r="AL27">
-        <f t="shared" si="13"/>
-        <v>3.8624968121362939</v>
-      </c>
-      <c r="AM27">
-        <f t="shared" si="14"/>
-        <v>26.211720593722834</v>
-      </c>
-      <c r="AN27">
-        <f t="shared" si="15"/>
-        <v>0.32594175794816993</v>
-      </c>
-      <c r="AP27">
-        <f t="shared" si="2"/>
-        <v>3.0677698882158396E-3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:42" ht="16" x14ac:dyDescent="0.2">
-      <c r="A28" s="23">
-        <v>2023</v>
-      </c>
-      <c r="M28">
-        <v>41330</v>
-      </c>
-      <c r="N28">
-        <v>935</v>
-      </c>
-      <c r="O28">
-        <f t="shared" si="4"/>
-        <v>42265</v>
-      </c>
-      <c r="S28">
-        <v>213646</v>
-      </c>
-      <c r="V28">
-        <v>19931</v>
-      </c>
-      <c r="AA28">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AB28">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AC28">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AD28" t="e">
-        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AE28">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AF28" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AG28" t="e">
-        <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AH28" t="e">
+      <c r="AL39" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AJ28" t="e">
-        <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AK28" t="e">
-        <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AL28" t="e">
-        <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AM28" t="e">
-        <f t="shared" si="14"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AN28" t="e">
+      <c r="AM39" t="e">
         <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AP28" t="e">
+      <c r="AO39" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AP39" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AQ39" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="30" spans="1:42" ht="16" x14ac:dyDescent="0.2">
-      <c r="AA30" t="s">
+      <c r="AR39" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AS39" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AU39" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="41" spans="1:47" ht="16" x14ac:dyDescent="0.2">
+      <c r="AF41" t="s">
         <v>36</v>
       </c>
-      <c r="AB30" t="s">
+      <c r="AG41" t="s">
         <v>37</v>
       </c>
-      <c r="AC30" t="s">
+      <c r="AH41" t="s">
         <v>38</v>
       </c>
-      <c r="AD30" t="s">
+      <c r="AI41" t="s">
         <v>39</v>
       </c>
-      <c r="AE30" t="s">
+      <c r="AJ41" t="s">
         <v>40</v>
       </c>
-      <c r="AF30" t="s">
+      <c r="AK41" t="s">
         <v>41</v>
       </c>
-      <c r="AG30" t="s">
+      <c r="AL41" t="s">
         <v>42</v>
       </c>
-      <c r="AH30" t="s">
+      <c r="AM41" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="31" spans="1:42" ht="16" x14ac:dyDescent="0.2">
-      <c r="B31" t="s">
+    <row r="42" spans="1:47" ht="16" x14ac:dyDescent="0.2">
+      <c r="B42" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C42" t="s">
         <v>65</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D42" t="s">
         <v>65</v>
       </c>
-      <c r="E31" t="s">
+      <c r="E42" t="s">
         <v>65</v>
       </c>
-      <c r="G31" t="s">
+      <c r="G42" t="s">
         <v>65</v>
       </c>
-      <c r="H31" t="s">
+      <c r="H42" t="s">
         <v>66</v>
       </c>
-      <c r="L31" t="s">
+      <c r="L42" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="P31" t="s">
+      <c r="P42" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q42" t="s">
         <v>68</v>
       </c>
-      <c r="Q31" t="s">
+      <c r="R42" t="s">
         <v>68</v>
       </c>
-      <c r="R31" t="s">
-        <v>68</v>
-      </c>
-      <c r="S31" t="s">
+      <c r="T42" t="s">
         <v>69</v>
       </c>
-      <c r="V31" t="s">
+      <c r="AA42" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="32" spans="1:42" ht="16" x14ac:dyDescent="0.2">
-      <c r="B32" t="s">
+    <row r="43" spans="1:47" ht="16" x14ac:dyDescent="0.2">
+      <c r="B43" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="P32" t="s">
+      <c r="P43" t="s">
         <v>71</v>
       </c>
-      <c r="Q32" t="s">
+      <c r="Q43" t="s">
         <v>71</v>
       </c>
-      <c r="R32" t="s">
+      <c r="R43" t="s">
         <v>71</v>
       </c>
-      <c r="T32" t="s">
+      <c r="U43" t="s">
         <v>72</v>
       </c>
-      <c r="W32" t="s">
+      <c r="AB43" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="39" spans="21:22" ht="16" x14ac:dyDescent="0.2">
-      <c r="U39">
-        <f xml:space="preserve"> 1436982 / 285925</f>
-        <v>5.0257305237387424</v>
-      </c>
-      <c r="V39">
-        <f xml:space="preserve"> 31378 * 1000 / 1436982</f>
-        <v>21.836042483482743</v>
-      </c>
-    </row>
-    <row r="40" spans="21:22" ht="16" x14ac:dyDescent="0.2">
-      <c r="U40">
-        <f xml:space="preserve"> 999591 / 258794</f>
-        <v>3.8624968121362939</v>
-      </c>
-      <c r="V40">
-        <f xml:space="preserve"> 26201 * 1000 / 999591</f>
-        <v>26.211720593722834</v>
-      </c>
-    </row>
+    <row r="50" ht="16" x14ac:dyDescent="0.2"/>
+    <row r="51" ht="16" x14ac:dyDescent="0.2"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B32" r:id="rId1" xr:uid="{6411EEE9-DD4A-43EF-BDC3-D1799774E2D8}"/>
-    <hyperlink ref="L31" r:id="rId2" xr:uid="{C6C71115-F1CD-4B40-99CD-F78505218EC7}"/>
-    <hyperlink ref="H31" r:id="rId3" xr:uid="{44BE4E2D-5302-4E8A-A9CB-167C2300330B}"/>
+    <hyperlink ref="B43" r:id="rId1" xr:uid="{6411EEE9-DD4A-43EF-BDC3-D1799774E2D8}"/>
+    <hyperlink ref="L42" r:id="rId2" xr:uid="{C6C71115-F1CD-4B40-99CD-F78505218EC7}"/>
+    <hyperlink ref="H42" r:id="rId3" xr:uid="{44BE4E2D-5302-4E8A-A9CB-167C2300330B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -5282,8 +6406,8 @@
   <dimension ref="A1:AQ45"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F15" sqref="F15"/>
+      <pane xSplit="1" topLeftCell="K1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="V7" sqref="V7:V8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
